--- a/src/excel/bill.xlsx
+++ b/src/excel/bill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="12851" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="1249">
   <si>
     <t>number</t>
   </si>
@@ -259,7 +259,7 @@
     <t>09/18/2015</t>
   </si>
   <si>
-    <t>JoeWilson</t>
+    <t>Joe Wilson</t>
   </si>
   <si>
     <t>House</t>
@@ -289,7 +289,7 @@
     <t>01/06/2015</t>
   </si>
   <si>
-    <t>SheilaJacksonLee</t>
+    <t>Sheila Jackson Lee</t>
   </si>
   <si>
     <t>ArmedForcesandNationalSecurity</t>
@@ -361,7 +361,7 @@
     <t>HomelandSecurityCyberandPhysicalInfrastructureProtectionActof2011</t>
   </si>
   <si>
-    <t>BennieG.Thompson</t>
+    <t>Bennie G. Thompson</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/112th-congress/house-LAW/174?q=%7B%22search%22%3A%5B%22H.R.174%22%5D%7D&amp;s=1&amp;r=1</t>
@@ -379,7 +379,7 @@
     <t>01/08/2015</t>
   </si>
   <si>
-    <t>C.A.DutchRuppersberger</t>
+    <t>C. A. Dutch Ruppersberger</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/114th-congress/house-LAW/234?q=%7B%22search%22%3A%5B%22H.R.234%22%5D%7D&amp;s=5&amp;r=1</t>
@@ -436,7 +436,7 @@
     <t>01/06/2005</t>
   </si>
   <si>
-    <t>MacThornberry</t>
+    <t>Mac Thornberry</t>
   </si>
   <si>
     <t>CrimeandLawEnforcement</t>
@@ -460,7 +460,7 @@
     <t>01/08/2019</t>
   </si>
   <si>
-    <t>TedLieu</t>
+    <t>Ted Lieu</t>
   </si>
   <si>
     <t>Commerce</t>
@@ -481,7 +481,7 @@
     <t>01/09/2019</t>
   </si>
   <si>
-    <t>JerryMcNerney</t>
+    <t>Jerry McNerney</t>
   </si>
   <si>
     <t>Energy</t>
@@ -499,7 +499,7 @@
     <t>CyberSenseActof2019</t>
   </si>
   <si>
-    <t>RobertE.Latta</t>
+    <t>Robert E. Latta</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/house-LAW/360?q=%7B%22search%22%3A%5B%22H.R.360%22%5D%7D&amp;r=1&amp;s=1</t>
@@ -520,7 +520,7 @@
     <t>01/10/2017</t>
   </si>
   <si>
-    <t>CharlesJ."Chuck"Fleischmann</t>
+    <t>Charles J. "Chuck" Fleischmann</t>
   </si>
   <si>
     <t>GovernmentOperationsandPolitics</t>
@@ -571,7 +571,7 @@
     <t>01/17/2017</t>
   </si>
   <si>
-    <t>DanielM.Donovan,Jr.</t>
+    <t>Daniel M. Donovan, Jr.</t>
   </si>
   <si>
     <t>PassedHouse</t>
@@ -595,7 +595,7 @@
     <t>01/23/2017</t>
   </si>
   <si>
-    <t>JamesR.Langevin</t>
+    <t>James R. Langevin</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/house-LAW/612?q=%7B%22search%22%3A%5B%22H.R.612%22%5D%7D&amp;r=1&amp;s=7</t>
@@ -610,7 +610,7 @@
     <t>02/13/2013</t>
   </si>
   <si>
-    <t>MikeRogers</t>
+    <t>Mike Rogers</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/113th-congress/house-LAW/624?q=%7B%22search%22%3A%5B%22H.R.624%22%5D%7D&amp;r=1&amp;s=2</t>
@@ -628,7 +628,7 @@
     <t>01/24/2019</t>
   </si>
   <si>
-    <t>MichaelT.McCaul</t>
+    <t>Michael T. McCaul</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/house-LAW/739?q=%7B%22search%22%3A%5B%22H.R.739%22%5D%7D&amp;r=1&amp;s=5</t>
@@ -661,7 +661,7 @@
     <t>02/07/2017</t>
   </si>
   <si>
-    <t>JustinAmash</t>
+    <t>Justin Amash</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/house-LAW/923?q=%7B%22search%22%3A%5B%22HR923%22%5D%7D&amp;r=2&amp;s=1</t>
@@ -700,7 +700,7 @@
     <t>02/20/2015</t>
   </si>
   <si>
-    <t>JackieWalorski</t>
+    <t>Jackie Walorski</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/114th-congress/house-LAW/1017?q=%7B%22search%22%3A%5B%22HR1017%22%5D%7D&amp;r=3&amp;s=8</t>
@@ -748,7 +748,7 @@
     <t>03/02/2017</t>
   </si>
   <si>
-    <t>YvetteD.Clarke</t>
+    <t>Yvette D. Clarke</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/house-LAW/1335?q=%7B%22search%22%3A%5B%22HR1335%22%5D%7D&amp;r=2&amp;s=1</t>
@@ -766,7 +766,7 @@
     <t>02/26/2019</t>
   </si>
   <si>
-    <t>RonWright</t>
+    <t>Ron Wright</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/house-LAW/1359?q=%7B%22search%22%3A%5B%22HR1359%22%5D%7D&amp;s=3&amp;r=1</t>
@@ -784,7 +784,7 @@
     <t>03/16/2009</t>
   </si>
   <si>
-    <t>JoeSestak</t>
+    <t>Joe Sestak</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/111th-congress/house-LAW/1537?q=%7B%22search%22%3A%5B%22HR1537%22%5D%7D&amp;s=6&amp;r=2</t>
@@ -802,7 +802,7 @@
     <t>03/24/2015</t>
   </si>
   <si>
-    <t>DevinNunes</t>
+    <t>Devin Nunes</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/114th-congress/house-LAW/1560?q=%7B%22search%22%3A%5B%22HR1560%22%5D%7D&amp;s=8&amp;r=3</t>
@@ -835,7 +835,7 @@
     <t>04/18/2013</t>
   </si>
   <si>
-    <t>SteveIsrael</t>
+    <t>Steve Israel</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/113th-congress/house-LAW/1640?q=%7B%22search%22%3A%5B%22HR1640%22%5D%7D&amp;s=1&amp;r=4</t>
@@ -868,7 +868,7 @@
     <t>04/05/2017</t>
   </si>
   <si>
-    <t>HenryC."Hank"Johnson,Jr.</t>
+    <t>Henry C. "Hank" Johnson, Jr.</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/house-LAW/1907?q=%7B%22search%22%3A%5B%22HR1907%22%5D%7D&amp;s=6&amp;r=2</t>
@@ -886,7 +886,7 @@
     <t>04/02/2009</t>
   </si>
   <si>
-    <t>GeraldE.Connolly</t>
+    <t>Gerald E. Connolly</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/111th-congress/house-LAW/1910?q=%7B%22search%22%3A%5B%22HR1910%22%5D%7D&amp;s=2&amp;r=6</t>
@@ -934,7 +934,7 @@
     <t>CybersecurityAdvisoryCommitteeAuthorizationActof2019</t>
   </si>
   <si>
-    <t>JohnKatko</t>
+    <t>John Katko</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/house-LAW/1975?q=%7B%22search%22%3A%5B%22HR1975%22%5D%7D&amp;s=9&amp;r=1</t>
@@ -961,7 +961,7 @@
     <t>UkraineCybersecurityCooperationActof2017</t>
   </si>
   <si>
-    <t>BrendanF.Boyle</t>
+    <t>Brendan F. Boyle</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/house-LAW/1997?q=%7B%22search%22%3A%5B%22HR1997%22%5D%7D&amp;s=5&amp;r=2</t>
@@ -979,7 +979,7 @@
     <t>04/23/2015</t>
   </si>
   <si>
-    <t>DebbieWassermanSchultz</t>
+    <t>Debbie Wasserman Schultz</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/114th-congress/house-LAW/1998?q=%7B%22search%22%3A%5B%22HR1998%22%5D%7D&amp;s=7&amp;r=3</t>
@@ -997,7 +997,7 @@
     <t>04/28/2015</t>
   </si>
   <si>
-    <t>F.JamesSensenbrenner,Jr.</t>
+    <t>F. James Sensenbrenner, Jr.</t>
   </si>
   <si>
     <t>BecameLaw</t>
@@ -1033,7 +1033,7 @@
     <t>04/20/2017</t>
   </si>
   <si>
-    <t>DanielWebster</t>
+    <t>Daniel Webster</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/house-LAW/2105?q=%7B%22search%22%3A%5B%22HR2105%22%5D%7D&amp;s=5&amp;r=2</t>
@@ -1051,7 +1051,7 @@
     <t>04/08/2019</t>
   </si>
   <si>
-    <t>DerekKilmer</t>
+    <t>Derek Kilmer</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/house-LAW/2130?q=%7B%22search%22%3A%5B%22HR2130%22%5D%7D&amp;s=7&amp;r=1</t>
@@ -1099,7 +1099,7 @@
     <t>04/28/2017</t>
   </si>
   <si>
-    <t>WillHurd</t>
+    <t>Will Hurd</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/house-LAW/2227?q=%7B%22search%22%3A%5B%22HR2227%22%5D%7D&amp;s=3&amp;r=2</t>
@@ -1132,7 +1132,7 @@
     <t>04/10/2019</t>
   </si>
   <si>
-    <t>EliseM.Stefanik</t>
+    <t>Elise M. Stefanik</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/house-LAW/2286?q=%7B%22search%22%3A%5B%22HR2286%22%5D%7D&amp;s=8&amp;r=1</t>
@@ -1150,7 +1150,7 @@
     <t>04/18/2019</t>
   </si>
   <si>
-    <t>JasonCrow</t>
+    <t>Jason Crow</t>
   </si>
   <si>
     <t>Congress</t>
@@ -1174,7 +1174,7 @@
     <t>06/11/2003</t>
   </si>
   <si>
-    <t>JosephM.Hoeffel</t>
+    <t>Joseph M. Hoeffel</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/108th-congress/house-LAW/2429?q=%7B%22search%22%3A%5B%22HR2429%22%5D%7D&amp;s=2&amp;r=2</t>
@@ -1207,7 +1207,7 @@
     <t>05/02/2019</t>
   </si>
   <si>
-    <t>DavidN.Cicilline</t>
+    <t>David N. Cicilline</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/house-LAW/2488?q=%7B%22search%22%3A%5B%22HR2488%22%5D%7D&amp;s=6&amp;r=1</t>
@@ -1225,7 +1225,7 @@
     <t>06/19/2003</t>
   </si>
   <si>
-    <t>BarneyFrank</t>
+    <t>Barney Frank</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/108th-congress/house-LAW/2526?q=%7B%22search%22%3A%5B%22HR2526%22%5D%7D&amp;s=9&amp;r=2</t>
@@ -1243,7 +1243,7 @@
     <t>05/07/2019</t>
   </si>
   <si>
-    <t>ElijahE.Cummings</t>
+    <t>Elijah E. Cummings</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/house-LAW/2545?q=%7B%22search%22%3A%5B%22HR2545%22%5D%7D&amp;s=2&amp;r=1</t>
@@ -1261,7 +1261,7 @@
     <t>06/27/2013</t>
   </si>
   <si>
-    <t>MichaelM.Honda</t>
+    <t>Michael M. Honda</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/113th-congress/house-LAW/2556?q=%7B%22search%22%3A%5B%22HR2556%22%5D%7D&amp;s=7&amp;r=2</t>
@@ -1279,7 +1279,7 @@
     <t>05/22/2017</t>
   </si>
   <si>
-    <t>TulsiGabbard</t>
+    <t>Tulsi Gabbard</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/house-LAW/2588?q=%7B%22search%22%3A%5B%22HR2588%22%5D%7D&amp;s=8&amp;r=2</t>
@@ -1297,7 +1297,7 @@
     <t>05/24/2017</t>
   </si>
   <si>
-    <t>StephanieN.Murphy</t>
+    <t>Stephanie N. Murphy</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/house-LAW/2645?q=%7B%22search%22%3A%5B%22HR2645%22%5D%7D&amp;s=1&amp;r=2</t>
@@ -1315,7 +1315,7 @@
     <t>05/10/2019</t>
   </si>
   <si>
-    <t>MarkTakano</t>
+    <t>Mark Takano</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/house-LAW/2683?q=%7B%22search%22%3A%5B%22HR2683%22%5D%7D&amp;s=5&amp;r=1</t>
@@ -1351,7 +1351,7 @@
     <t>12/02/2015</t>
   </si>
   <si>
-    <t>DonaldNorcross</t>
+    <t>Donald Norcross</t>
   </si>
   <si>
     <t>https://www.congress.gov/amendment/114th-congress/house-amendment/874?q=%7B%22search%22%3A%5B%22HAmdt874%22%5D%7D&amp;r=2&amp;s=3</t>
@@ -1369,7 +1369,7 @@
     <t>04/14/2016</t>
   </si>
   <si>
-    <t>EdwardR.Royce</t>
+    <t>Edward R. Royce</t>
   </si>
   <si>
     <t>https://www.congress.gov/amendment/114th-congress/house-amendment/973?q=%7B%22search%22%3A%5B%22HAmdt973%22%5D%7D&amp;r=2&amp;s=1</t>
@@ -1399,7 +1399,7 @@
     <t>H.Amdt.1020toH.R.3523</t>
   </si>
   <si>
-    <t>MikePompeo</t>
+    <t>Mike Pompeo</t>
   </si>
   <si>
     <t>https://www.congress.gov/amendment/112th-congress/house-amendment/1020?q=%7B%22search%22%3A%5B%22HAmdt1020%22%5D%7D&amp;r=3&amp;s=5</t>
@@ -1414,7 +1414,7 @@
     <t>H.Amdt.1022toH.R.3523</t>
   </si>
   <si>
-    <t>BenjaminQuayle</t>
+    <t>Benjamin Quayle</t>
   </si>
   <si>
     <t>https://www.congress.gov/amendment/112th-congress/house-amendment/1022?q=%7B%22search%22%3A%5B%22HAmdt1022%22%5D%7D&amp;r=3&amp;s=7</t>
@@ -1429,7 +1429,7 @@
     <t>H.Amdt.1024toH.R.3523</t>
   </si>
   <si>
-    <t>MickMulvaney</t>
+    <t>Mick Mulvaney</t>
   </si>
   <si>
     <t>https://www.congress.gov/amendment/112th-congress/house-amendment/1024?q=%7B%22search%22%3A%5B%22HAmdt1024%22%5D%7D&amp;r=3&amp;s=9</t>
@@ -1453,7 +1453,7 @@
     <t>12/18/2005</t>
   </si>
   <si>
-    <t>BarbaraLee</t>
+    <t>Barbara Lee</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/109th-congress/house-resolution/641?r=1&amp;s=3</t>
@@ -1474,7 +1474,7 @@
     <t>06/25/2014</t>
   </si>
   <si>
-    <t>SteveChabot</t>
+    <t>Steve Chabot</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/113th-congress/house-resolution/643?r=1&amp;s=6</t>
@@ -1495,7 +1495,7 @@
     <t>05/12/2016</t>
   </si>
   <si>
-    <t>PeteSessions</t>
+    <t>Pete Sessions</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/114th-congress/house-resolution/727?r=1&amp;s=2</t>
@@ -1513,7 +1513,7 @@
     <t>12/02/2014</t>
   </si>
   <si>
-    <t>LeeTerry</t>
+    <t>Lee Terry</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/113th-congress/house-resolution/769?r=1&amp;s=4</t>
@@ -1569,7 +1569,7 @@
     <t>02/02/2010</t>
   </si>
   <si>
-    <t>MichaelA.Arcuri</t>
+    <t>Michael A. Arcuri</t>
   </si>
   <si>
     <t>AgreedInHouse</t>
@@ -1590,7 +1590,7 @@
     <t>07/13/2010</t>
   </si>
   <si>
-    <t>CarolynMcCarthy</t>
+    <t>Carolyn McCarthy</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/111th-congress/house-resolution/1512?r=1&amp;s=2</t>
@@ -1626,7 +1626,7 @@
     <t>01/25/2011</t>
   </si>
   <si>
-    <t>HarryReid</t>
+    <t>Harry Reid</t>
   </si>
   <si>
     <t>Senate</t>
@@ -1656,7 +1656,7 @@
     <t>01/22/2013</t>
   </si>
   <si>
-    <t>SenatorJohnD.RockefellerIV</t>
+    <t>John D. Rockefeller IV</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/113th-congress/senate-LAW/21?r=1&amp;s=6</t>
@@ -1694,7 +1694,7 @@
     </r>
   </si>
   <si>
-    <t>ArlenSpecter</t>
+    <t>Arlen Specter</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/110th-congress/senate-LAW/187?r=1&amp;s=1</t>
@@ -1732,7 +1732,7 @@
     </r>
   </si>
   <si>
-    <t>RussellD.Feingold</t>
+    <t>Russell D. Feingold</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/108th-congress/senate-LAW/188?r=1&amp;s=2</t>
@@ -1753,7 +1753,7 @@
     <t>01/31/2019</t>
   </si>
   <si>
-    <t>JohnCornyn</t>
+    <t>John Cornyn</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/300?r=1&amp;s=4</t>
@@ -1771,7 +1771,7 @@
     <t>DHSCyberHuntandIncidentResponseTeamsActof2019</t>
   </si>
   <si>
-    <t>MargaretWoodHassan</t>
+    <t>Margaret Wood Hassan</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/315/text?r=1&amp;s=5</t>
@@ -1821,7 +1821,7 @@
     <t>02/16/2011</t>
   </si>
   <si>
-    <t>BenjaminL.Cardin</t>
+    <t>Benjamin L. Cardin</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/112th-congress/senate-LAW/372?r=1&amp;s=9</t>
@@ -1839,7 +1839,7 @@
     <t>02/16/2017</t>
   </si>
   <si>
-    <t>GaryC.Peters</t>
+    <t>Gary C. Peters</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/412?r=1&amp;s=2</t>
@@ -1857,7 +1857,7 @@
     <t>02/17/2011</t>
   </si>
   <si>
-    <t>JosephI.Lieberman</t>
+    <t>Joseph I. Lieberman</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/112th-congress/senate-LAW/413?r=1&amp;s=5</t>
@@ -1875,7 +1875,7 @@
     <t>02/07/2019</t>
   </si>
   <si>
-    <t>AmyKlobuchar</t>
+    <t>Amy Klobuchar</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/429/text?r=1&amp;s=2</t>
@@ -1890,7 +1890,7 @@
     <t>02/11/2015</t>
   </si>
   <si>
-    <t>ThomasR.Carper</t>
+    <t>Thomas R. Carper</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/114th-congress/senate-LAW/456?r=1&amp;s=7</t>
@@ -1905,7 +1905,7 @@
     <t>StateCyberResiliencyAct</t>
   </si>
   <si>
-    <t>MarkR.Warner</t>
+    <t>Mark R. Warner</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/516?r=1&amp;s=2</t>
@@ -1923,7 +1923,7 @@
     <t>03/07/2017</t>
   </si>
   <si>
-    <t>JackReed</t>
+    <t>Jack Reed</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/536?r=1&amp;s=2</t>
@@ -1941,7 +1941,7 @@
     <t>03/09/2017</t>
   </si>
   <si>
-    <t>TimKaine</t>
+    <t>Tim  Kaine</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/592?r=1&amp;s=4</t>
@@ -1980,7 +1980,7 @@
     <t>CyberDeterrenceandResponseActof2019</t>
   </si>
   <si>
-    <t>CoryGardner</t>
+    <t>Cory Gardner</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/602/text?q=%7B%22search%22%3A%5B%22s602%22%5D%7D&amp;r=1&amp;s=2</t>
@@ -1995,7 +1995,7 @@
     <t>03/14/2017</t>
   </si>
   <si>
-    <t>MariaCantwell</t>
+    <t>Maria Cantwell</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/624?q=%7B%22search%22%3A%5B%22s.624%22%5D%7D&amp;s=10&amp;r=1</t>
@@ -2010,7 +2010,7 @@
     <t>03/23/2017</t>
   </si>
   <si>
-    <t>SheldonWhitehouse</t>
+    <t>Sheldon Whitehouse</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/719?q=%7B%22search%22%3A%5B%22s.719%22%5D%7D&amp;s=2&amp;r=1</t>
@@ -2060,7 +2060,7 @@
     </r>
   </si>
   <si>
-    <t>RichardBurr</t>
+    <t>Richard Burr</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/114th-congress/senate-LAW/754?q=%7B%22search%22%3A%5B%22s754%22%5D%7D&amp;s=1&amp;r=1</t>
@@ -2075,7 +2075,7 @@
     <t>03/29/2017</t>
   </si>
   <si>
-    <t>BrianSchatz</t>
+    <t>Brian  Schatz</t>
   </si>
   <si>
     <t>BecomeLaw</t>
@@ -2096,7 +2096,7 @@
     <t>03/13/2019</t>
   </si>
   <si>
-    <t>MarcoRubio</t>
+    <t>Marco  Rubio</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/771?q=%7B%22search%22%3A%5B%22S771%22%5D%7D&amp;s=2&amp;r=1</t>
@@ -2123,9 +2123,6 @@
     <t>04/01/2009</t>
   </si>
   <si>
-    <t>JohnD.RockefellerIV</t>
-  </si>
-  <si>
     <t>https://www.congress.gov/LAW/111th-congress/senate-LAW/773?q=%7B%22search%22%3A%5B%22s773%22%5D%7D&amp;s=6&amp;r=1</t>
   </si>
   <si>
@@ -2165,7 +2162,7 @@
     <t>03/25/2019</t>
   </si>
   <si>
-    <t>JoeManchinIII</t>
+    <t>Joe  Manchin III</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/853/text?q=%7B%22search%22%3A%5B%22s853%22%5D%7D&amp;r=1&amp;s=5</t>
@@ -2183,7 +2180,7 @@
     <t>03/27/2019</t>
   </si>
   <si>
-    <t>RonWyden</t>
+    <t>Ron Wyden</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/890/text?q=%7B%22search%22%3A%5B%22s890%22%5D%7D&amp;r=1&amp;s=6</t>
@@ -2219,7 +2216,7 @@
     <t>ModernizingGovernmentTechnologyActof2017ortheMGTAct</t>
   </si>
   <si>
-    <t>JerryMoran</t>
+    <t>Jerry Moran</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/990?q=%7B%22search%22%3A%5B%22s990%22%5D%7D&amp;s=7&amp;r=1</t>
@@ -2237,7 +2234,7 @@
     <t>05/17/2011</t>
   </si>
   <si>
-    <t>PatrickJ.Leahy</t>
+    <t>Patrick J. Leahy</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/112th-congress/senate-LAW/1011?q=%7B%22search%22%3A%5B%22s1011%22%5D%7D&amp;s=9&amp;r=1</t>
@@ -2267,13 +2264,16 @@
     <t>S.1065</t>
   </si>
   <si>
+    <t xml:space="preserve">Mark R. Warner </t>
+  </si>
+  <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/1065/text?q=%7B%22search%22%3A%5B%22s1065%22%5D%7D&amp;r=1&amp;s=4</t>
   </si>
   <si>
     <t>S.1111</t>
   </si>
   <si>
-    <t>RonJohnson</t>
+    <t xml:space="preserve">Ron  Johnson </t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/113th-congress/senate-LAW/1111?q=%7B%22search%22%3A%5B%22s1111%22%5D%7D&amp;s=7&amp;r=1</t>
@@ -2291,7 +2291,7 @@
     <t>04/16/2007</t>
   </si>
   <si>
-    <t>DianneFeinstein</t>
+    <t>Dianne Feinstein</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/110th-congress/senate-LAW/1114?q=%7B%22search%22%3A%5B%22s1114%22%5D%7D&amp;s=9&amp;r=1</t>
@@ -2321,7 +2321,7 @@
     <t>CybersecurityEnhancementActof2011</t>
   </si>
   <si>
-    <t>RobertMenendez</t>
+    <t>Robert Menendez</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/112th-congress/senate-LAW/1152?q=%7B%22search%22%3A%5B%22s1152%22%5D%7D&amp;s=2&amp;r=1</t>
@@ -2366,7 +2366,7 @@
     <t>06/08/2011</t>
   </si>
   <si>
-    <t>KirstenE.Gillibrand</t>
+    <t>Kirsten E. Gillibrand</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/112th-congress/senate-LAW/1159?q=%7B%22search%22%3A%5B%22s1159%22%5D%7D&amp;s=10&amp;r=1</t>
@@ -2399,7 +2399,7 @@
     <t>06/22/2011</t>
   </si>
   <si>
-    <t>CarlLevin</t>
+    <t>Carl Levin</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/112th-congress/senate-LAW/1256?q=%7B%22search%22%3A%5B%22s1256%22%5D%7D&amp;s=4&amp;r=1</t>
@@ -2411,7 +2411,7 @@
     <t>S.1336</t>
   </si>
   <si>
-    <t>ElizabethWarren</t>
+    <t>Elizabeth Warren</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/1336/text?q=%7B%22search%22%3A%5B%22s1336%22%5D%7D&amp;r=1&amp;s=2</t>
@@ -2426,7 +2426,7 @@
     <t>06/12/2017</t>
   </si>
   <si>
-    <t>TomCotton</t>
+    <t>Tom Cotton</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/1339?q=%7B%22search%22%3A%5B%22s1339%22%5D%7D&amp;s=5&amp;r=1</t>
@@ -2444,7 +2444,7 @@
     <t>07/11/2011</t>
   </si>
   <si>
-    <t>JeffBingaman</t>
+    <t>Jeff Bingaman</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/112th-congress/senate-LAW/1342?q=%7B%22search%22%3A%5B%22s1342%22%5D%7D&amp;s=7&amp;r=1</t>
@@ -2523,7 +2523,7 @@
     </r>
   </si>
   <si>
-    <t>JamesE.Risch</t>
+    <t xml:space="preserve">James E. Risch </t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/1428?q=%7B%22search%22%3A%5B%22s1428%22%5D%7D&amp;s=4&amp;r=1</t>
@@ -2573,7 +2573,7 @@
     </r>
   </si>
   <si>
-    <t>MikeRounds</t>
+    <t>Mike  Rounds</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/1443?q=%7B%22search%22%3A%5B%22s1443%22%5D%7D&amp;s=4&amp;r=1</t>
@@ -2594,7 +2594,7 @@
     <t>09/21/2001</t>
   </si>
   <si>
-    <t>BobGraham</t>
+    <t>Bob Graham</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/107th-congress/senate-LAW/1448?q=%7B%22search%22%3A%5B%22s1448%22%5D%7D&amp;s=6&amp;r=1</t>
@@ -2644,7 +2644,7 @@
     <t>05/14/2019</t>
   </si>
   <si>
-    <t>JackyRosen</t>
+    <t>Jacky Rosen</t>
   </si>
   <si>
     <t>LaborandEmployment</t>
@@ -2706,7 +2706,7 @@
     <t>02/03/2010</t>
   </si>
   <si>
-    <t>LorettaSanchez</t>
+    <t>Loretta Sanchez</t>
   </si>
   <si>
     <t>Anamendmentnumbered11printedinHouseReport111-410toadd"jobsecurityclearanceandsuitabilityrequirements"totheissuesthataretobeconsideredinthecybersecurityworkforceassessment.</t>
@@ -2754,7 +2754,7 @@
     <t>111thCongress（2009-2013）</t>
   </si>
   <si>
-    <t>HenryCuellar</t>
+    <t>Henry Cuellar</t>
   </si>
   <si>
     <t>Anamendmentnumbered14printedinHouseReport111-410toaddtotheCybersecurityStrategicResearchandDevelopmentplanarequirementtodeterminehowtostrengthenalllevelsofcybersecurityeducationandtrainingprogramstosecureanadequate,well-trainedworkforce.</t>
@@ -2772,7 +2772,7 @@
     <t>111thCongress（2009-2014）</t>
   </si>
   <si>
-    <t>CarolShea-Porter</t>
+    <t>Carol Shea-Porter</t>
   </si>
   <si>
     <t>Anamendmentnumbered15printedinHouseReport111-410toextendtheserviceobligationforrecipientsofcybersecurityscholarshipsorfellowshipsonaslidingscaledependingonthedegreeprogram.</t>
@@ -2805,7 +2805,7 @@
     <t>111thCongress（2009-2016）</t>
   </si>
   <si>
-    <t>BobbyBright</t>
+    <t>Bobby Bright</t>
   </si>
   <si>
     <t>Anamendmentnumbered17printedinHouseReport111-410torequireaNationalAcademyofSciencesstudyontheroleofcommunitycollegesincybersecurityeducation.Thestudywouldalsoidentifybestpracticesrelatedtocybersecurityeducationbetweencommunitycollegesandfour-yeareducationalinstitutions.</t>
@@ -2826,7 +2826,7 @@
     <t>06/29/2017</t>
   </si>
   <si>
-    <t>OrrinG.Hatch</t>
+    <t>Orrin G. Hatch</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/1475?r=1</t>
@@ -2913,7 +2913,7 @@
     <t>07/27/2017</t>
   </si>
   <si>
-    <t>RichardBlumenthal </t>
+    <t xml:space="preserve">Richard  Blumenthal </t>
   </si>
   <si>
     <t>Health</t>
@@ -2934,9 +2934,6 @@
     <t>08/01/2017</t>
   </si>
   <si>
-    <t> MarkR.Warner</t>
-  </si>
-  <si>
     <t> Senate</t>
   </si>
   <si>
@@ -2955,9 +2952,6 @@
     <t>06/12/2019</t>
   </si>
   <si>
-    <t>MikeRounds </t>
-  </si>
-  <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/1798?r=1</t>
   </si>
   <si>
@@ -3000,9 +2994,6 @@
     <t>06/13/2019</t>
   </si>
   <si>
-    <t> GaryC.Peters</t>
-  </si>
-  <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/1846?r=1&amp;s=6</t>
   </si>
   <si>
@@ -3036,7 +3027,7 @@
     <t>03/02/1994</t>
   </si>
   <si>
-    <t> DennisDeConcini</t>
+    <t> Dennis DeConcini</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/103rd-congress/senate-LAW/1885?r=1&amp;s=7</t>
@@ -3054,7 +3045,7 @@
     <t>11/24/2003</t>
   </si>
   <si>
-    <t> JonS.Corzine</t>
+    <t>Jon S. Corzine</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/108th-congress/senate-LAW/1946?r=1&amp;s=10</t>
@@ -3072,7 +3063,7 @@
     <t>11/10/2005</t>
   </si>
   <si>
-    <t>JohnThune</t>
+    <t>John Thune</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/109th-congress/senate-LAW/2001?r=1&amp;s=3</t>
@@ -3090,7 +3081,7 @@
     <t>08/06/2015</t>
   </si>
   <si>
-    <t>MichaelF.Bennet</t>
+    <t xml:space="preserve">Michael F. Bennet </t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/114th-congress/senate-LAW/2007?r=1&amp;s=6</t>
@@ -3108,7 +3099,7 @@
     <t>10/26/2017</t>
   </si>
   <si>
-    <t>EdwardJ.Markey</t>
+    <t>Edward J. Markey</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/2020?r=1&amp;s=2</t>
@@ -3126,7 +3117,7 @@
     <t>11/07/2017</t>
   </si>
   <si>
-    <t>KamalaD.Harris</t>
+    <t>Kamala D. Harris</t>
   </si>
   <si>
     <t>TransportationandPublicWorks</t>
@@ -3177,7 +3168,7 @@
     <t>03/01/2012</t>
   </si>
   <si>
-    <t>JohnMcCain</t>
+    <t>John McCain</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/112th-congress/senate-LAW/2151?r=1&amp;s=2</t>
@@ -3210,9 +3201,6 @@
     <t>10/26/2007</t>
   </si>
   <si>
-    <t> JohnD.RockefellerIV</t>
-  </si>
-  <si>
     <t>https://www.congress.gov/LAW/110th-congress/senate-LAW/2248?r=1&amp;s=4</t>
   </si>
   <si>
@@ -3228,7 +3216,7 @@
     <t>12/03/2015</t>
   </si>
   <si>
-    <t>AngusS.KingJr. </t>
+    <t>Angus S. King Jr.</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/114th-congress/senate-LAW/2356?r=1&amp;s=3</t>
@@ -3278,7 +3266,7 @@
     <t>02/07/2018</t>
   </si>
   <si>
-    <t>SteveDaines</t>
+    <t>Steve Daines</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/2392?r=1&amp;s=5</t>
@@ -3326,7 +3314,7 @@
     <t>02/15/2018</t>
   </si>
   <si>
-    <t> MariaCantwell</t>
+    <t> Maria Cantwell</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/2444?r=1&amp;s=4</t>
@@ -3344,7 +3332,7 @@
     <t>02/27/2018</t>
   </si>
   <si>
-    <t>SherrodBrown</t>
+    <t>Sherrod Brown</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/2455?r=1&amp;s=7</t>
@@ -3362,9 +3350,6 @@
     <t>06/24/2014</t>
   </si>
   <si>
-    <t>ThomasR.Carpe</t>
-  </si>
-  <si>
     <t>https://www.congress.gov/LAW/113th-congress/senate-LAW/2519?r=1&amp;s=10</t>
   </si>
   <si>
@@ -3383,9 +3368,6 @@
     <t>09/19/2019</t>
   </si>
   <si>
-    <t>TimKaine </t>
-  </si>
-  <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/2521?r=1&amp;s=6</t>
   </si>
   <si>
@@ -3401,7 +3383,7 @@
     <t>09/26/2019</t>
   </si>
   <si>
-    <t>MarthaMcSally</t>
+    <t>Martha McSally</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/116th-congress/senate-LAW/2586?r=1&amp;s=2</t>
@@ -3437,7 +3419,7 @@
     <t>06/20/2002</t>
   </si>
   <si>
-    <t>MikeDeWine</t>
+    <t>Mike DeWine</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/107th-congress/senate-LAW/2659?r=1&amp;s=1</t>
@@ -3455,7 +3437,7 @@
     <t>04/12/2018</t>
   </si>
   <si>
-    <t>ChristopherA.Coons</t>
+    <t xml:space="preserve">Christopher A. Coons </t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/2666?r=1&amp;s=4</t>
@@ -3488,7 +3470,7 @@
     <t>09/23/2004</t>
   </si>
   <si>
-    <t>SusanM.Collins</t>
+    <t>Susan M. Collins</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/108th-congress/senate-LAW/2840?r=1&amp;s=10</t>
@@ -3506,9 +3488,6 @@
     <t>09/18/2002</t>
   </si>
   <si>
-    <t> RussellD.Feingold</t>
-  </si>
-  <si>
     <t>https://www.congress.gov/LAW/107th-congress/senate-LAW/2956?r=1&amp;s=2</t>
   </si>
   <si>
@@ -3524,9 +3503,6 @@
     <t>06/05/2018</t>
   </si>
   <si>
-    <t> MichaelF.Bennet</t>
-  </si>
-  <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/2991?r=1&amp;s=6</t>
   </si>
   <si>
@@ -3572,7 +3548,7 @@
     <t>06/06/2016</t>
   </si>
   <si>
-    <t>DavidVitter</t>
+    <t>David Vitter</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/114th-congress/senate-LAW/3024?r=1&amp;s=4</t>
@@ -3590,7 +3566,7 @@
     <t>04/12/2010</t>
   </si>
   <si>
-    <t>JohnF.Kerry</t>
+    <t>John F. Kerry</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/111th-congress/senate-LAW/3193?r=1&amp;s=2</t>
@@ -3740,9 +3716,6 @@
     <t>06/10/2010</t>
   </si>
   <si>
-    <t>JosephI.Lieberma</t>
-  </si>
-  <si>
     <t>https://www.congress.gov/LAW/111th-congress/senate-LAW/3480?r=1&amp;s=5</t>
   </si>
   <si>
@@ -3755,7 +3728,7 @@
     <t>11/29/2018</t>
   </si>
   <si>
-    <t>CoryGardner </t>
+    <t>Cory Gardner </t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/3677?q=%7B%22search%22%3A%5B%22S.3677%22%5D%7D&amp;s=7&amp;r=1</t>
@@ -3773,7 +3746,7 @@
     <t>12/05/2018</t>
   </si>
   <si>
-    <t>RobPortman</t>
+    <t>Rob Portman</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/3707?r=1&amp;s=9</t>
@@ -3788,7 +3761,7 @@
     <t>12/19/2018</t>
   </si>
   <si>
-    <t>BenSasse</t>
+    <t>Ben  Sasse</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-LAW/3786?r=1&amp;s=3</t>
@@ -3806,7 +3779,7 @@
     <t>09/07/2006</t>
   </si>
   <si>
-    <t> ArlenSpecter</t>
+    <t> Arlen Specter</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/109th-congress/senate-LAW/3876?r=1&amp;s=7</t>
@@ -3836,7 +3809,7 @@
     <t>09/22/2006</t>
   </si>
   <si>
-    <t>MitchMcConnell</t>
+    <t>Mitch McConnell</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/109th-congress/senate-LAW/3931?r=1&amp;s=3</t>
@@ -3914,7 +3887,7 @@
     <t>07/25/2019</t>
   </si>
   <si>
-    <t>DebFischer</t>
+    <t>Deb  Fischer</t>
   </si>
   <si>
     <t>AgreedToInSenate</t>
@@ -3948,9 +3921,6 @@
   </si>
   <si>
     <t>10/01/2018</t>
-  </si>
-  <si>
-    <t>RichardBlumenthal</t>
   </si>
   <si>
     <t>https://www.congress.gov/LAW/115th-congress/senate-resolution/663?r=1&amp;s=9</t>
@@ -4025,7 +3995,7 @@
     </r>
   </si>
   <si>
-    <t>FrankKratovil,Jr.</t>
+    <t>Frank Kratovil, Jr.</t>
   </si>
   <si>
     <t>Anamendmentnumbered22printedinHouseReport111-410toinstructtheDirectoroftheNationalScienceFoundationtoestablish,onamerit-reviewedandcompetitivebasis,aNationalCenterofExcellenceforCybersecurityaspartoftheNetworkingandInformationTechnologyandResearchDevelopmentProgram.</t>
@@ -4061,7 +4031,7 @@
     </r>
   </si>
   <si>
-    <t>WilliamL.Owens</t>
+    <t>William L. Owens</t>
   </si>
   <si>
     <t>Anamendmentnumbered24printedinHouseReport111-410torequiretheCybersecurityStrategicResearchandDevelopmentplantoincludeacomponentontechnologiestosecuresensitiveinformationsharedamongFederalagencies.</t>
@@ -4097,7 +4067,7 @@
     </r>
   </si>
   <si>
-    <t>MartinHeinrich</t>
+    <t>Martin Heinrich</t>
   </si>
   <si>
     <t>Anamendmentnumbered25printedinHouseReport111-410toallownationallaboratoriestobeincludedasstakeholdersintheCybersecurityStrategicResearchandDevelopmentPlan.</t>
@@ -4136,9 +4106,6 @@
     <t>02/25/2010</t>
   </si>
   <si>
-    <t> MichaelA.Arcuri </t>
-  </si>
-  <si>
     <t>Anamendmentnumbered7printedinHouseReport111-419torequirethePresidenttosubmitdetailednotificationstoCongressoncurrentandnewly-createdcybersecurityprograms.</t>
   </si>
   <si>
@@ -4211,7 +4178,7 @@
     <t>05/30/2014</t>
   </si>
   <si>
-    <t>PeteP.Gallego</t>
+    <t>Pete P. Gallego</t>
   </si>
   <si>
     <t>Anamendmentnumbered9printedinHouseReport113-465torequiretheDirectorofNationalIntelligence--inconsultationwiththeSecretaryofDefense,SecretaryofVeteransAffairs,andSecretaryofHomelandSecurity--tosubmitrecommendationstoCongressforretraining(a)veteransand(b)retiredmembersoftheintelligencecommunityincybersecurity.</t>
@@ -4228,10 +4195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="29">
@@ -4280,8 +4247,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4295,46 +4329,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4355,16 +4361,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4374,45 +4380,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4458,19 +4425,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4482,37 +4455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4530,7 +4473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4542,7 +4485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4554,7 +4521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4566,31 +4545,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4602,19 +4593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4626,19 +4605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4765,11 +4732,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4785,6 +4773,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4809,56 +4821,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4870,10 +4837,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4882,133 +4849,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5489,8 +5456,8 @@
   <sheetPr/>
   <dimension ref="A1:S2029"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B140" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140:F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -5501,6 +5468,7 @@
     <col min="7" max="10" width="28" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="4" customWidth="1"/>
     <col min="12" max="17" width="28" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
     <col min="19" max="19" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5622,7 +5590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" ht="14.4" spans="1:19">
       <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
@@ -5664,7 +5632,7 @@
       <c r="Q3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" ht="14.4" spans="1:19">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -5724,7 +5692,7 @@
       <c r="Q6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" ht="14.4" spans="1:19">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -5744,7 +5712,7 @@
       <c r="Q7" s="12"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" ht="14.4" spans="1:19">
       <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
@@ -5786,7 +5754,7 @@
       <c r="Q8" s="12"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" ht="14.4" spans="1:19">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -5966,7 +5934,7 @@
       <c r="Q17" s="12"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" ht="14.4" spans="1:19">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -5986,7 +5954,7 @@
       <c r="Q18" s="12"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" ht="14.4" spans="1:19">
       <c r="A19" s="12" t="s">
         <v>57</v>
       </c>
@@ -6028,7 +5996,7 @@
       <c r="Q19" s="12"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" ht="14.4" spans="1:19">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -6128,7 +6096,7 @@
       <c r="Q24" s="12"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" ht="14.4" spans="1:19">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -6148,7 +6116,7 @@
       <c r="Q25" s="12"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" ht="14.4" spans="1:19">
       <c r="A26" s="12" t="s">
         <v>64</v>
       </c>
@@ -6190,7 +6158,7 @@
       <c r="Q26" s="12"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" ht="14.4" spans="1:19">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -6630,7 +6598,7 @@
       <c r="Q48" s="12"/>
       <c r="S48" s="12"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" ht="14.4" spans="1:19">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -6650,7 +6618,7 @@
       <c r="Q49" s="12"/>
       <c r="S49" s="12"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" ht="14.4" spans="1:19">
       <c r="A50" s="12" t="s">
         <v>69</v>
       </c>
@@ -6692,7 +6660,7 @@
       <c r="Q50" s="12"/>
       <c r="S50" s="12"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" ht="14.4" spans="1:19">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -6792,7 +6760,7 @@
       <c r="Q55" s="12"/>
       <c r="S55" s="12"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" ht="14.4" spans="1:19">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -6812,7 +6780,7 @@
       <c r="Q56" s="12"/>
       <c r="S56" s="12"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" ht="14.4" spans="1:19">
       <c r="A57" s="12" t="s">
         <v>75</v>
       </c>
@@ -6854,7 +6822,7 @@
       <c r="Q57" s="12"/>
       <c r="S57" s="12"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" ht="14.4" spans="1:19">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -7134,7 +7102,7 @@
       <c r="Q71" s="12"/>
       <c r="S71" s="12"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" ht="14.4" spans="1:19">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -7154,7 +7122,7 @@
       <c r="Q72" s="12"/>
       <c r="S72" s="12"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" ht="14.4" spans="1:19">
       <c r="A73" s="12" t="s">
         <v>80</v>
       </c>
@@ -7196,7 +7164,7 @@
       <c r="Q73" s="12"/>
       <c r="S73" s="12"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" ht="14.4" spans="1:19">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -7656,7 +7624,7 @@
       <c r="Q96" s="12"/>
       <c r="S96" s="12"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" ht="14.4" spans="1:19">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -7676,7 +7644,7 @@
       <c r="Q97" s="12"/>
       <c r="S97" s="12"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" ht="14.4" spans="1:19">
       <c r="A98" s="12" t="s">
         <v>86</v>
       </c>
@@ -7718,7 +7686,7 @@
       <c r="Q98" s="12"/>
       <c r="S98" s="12"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" ht="14.4" spans="1:19">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -8018,7 +7986,7 @@
       <c r="Q113" s="12"/>
       <c r="S113" s="12"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" ht="14.4" spans="1:19">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -8038,7 +8006,7 @@
       <c r="Q114" s="12"/>
       <c r="S114" s="12"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" ht="14.4" spans="1:19">
       <c r="A115" s="12" t="s">
         <v>92</v>
       </c>
@@ -8080,7 +8048,7 @@
       <c r="Q115" s="12"/>
       <c r="S115" s="12"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" ht="14.4" spans="1:19">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -8180,7 +8148,7 @@
       <c r="Q120" s="12"/>
       <c r="S120" s="12"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" ht="14.4" spans="1:19">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -8200,7 +8168,7 @@
       <c r="Q121" s="12"/>
       <c r="S121" s="12"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" ht="14.4" spans="1:19">
       <c r="A122" s="12" t="s">
         <v>98</v>
       </c>
@@ -8242,7 +8210,7 @@
       <c r="Q122" s="12"/>
       <c r="S122" s="12"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" ht="14.4" spans="1:19">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -8562,7 +8530,7 @@
       <c r="Q138" s="12"/>
       <c r="S138" s="12"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" ht="14.4" spans="1:19">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -8624,7 +8592,7 @@
       <c r="Q140" s="12"/>
       <c r="S140" s="12"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" ht="14.4" spans="1:19">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -8724,7 +8692,7 @@
       <c r="Q145" s="12"/>
       <c r="S145" s="12"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" ht="14.4" spans="1:19">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -8744,7 +8712,7 @@
       <c r="Q146" s="12"/>
       <c r="S146" s="12"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" ht="14.4" spans="1:19">
       <c r="A147" s="12" t="s">
         <v>114</v>
       </c>
@@ -8786,7 +8754,7 @@
       <c r="Q147" s="12"/>
       <c r="S147" s="12"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" ht="14.4" spans="1:19">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -8906,7 +8874,7 @@
       <c r="Q153" s="12"/>
       <c r="S153" s="12"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" ht="14.4" spans="1:19">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -8926,7 +8894,7 @@
       <c r="Q154" s="12"/>
       <c r="S154" s="12"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" ht="14.4" spans="1:19">
       <c r="A155" s="12" t="s">
         <v>121</v>
       </c>
@@ -8968,7 +8936,7 @@
       <c r="Q155" s="12"/>
       <c r="S155" s="12"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" ht="14.4" spans="1:19">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -9088,7 +9056,7 @@
       <c r="Q161" s="12"/>
       <c r="S161" s="12"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" ht="14.4" spans="1:19">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -9108,7 +9076,7 @@
       <c r="Q162" s="12"/>
       <c r="S162" s="12"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" ht="14.4" spans="1:19">
       <c r="A163" s="12" t="s">
         <v>126</v>
       </c>
@@ -9150,7 +9118,7 @@
       <c r="Q163" s="12"/>
       <c r="S163" s="12"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" ht="14.4" spans="1:19">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -9230,7 +9198,7 @@
       <c r="Q167" s="12"/>
       <c r="S167" s="12"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" ht="14.4" spans="1:19">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -9250,7 +9218,7 @@
       <c r="Q168" s="12"/>
       <c r="S168" s="12"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" ht="14.4" spans="1:19">
       <c r="A169" s="12" t="s">
         <v>134</v>
       </c>
@@ -9292,7 +9260,7 @@
       <c r="Q169" s="12"/>
       <c r="S169" s="12"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" ht="14.4" spans="1:19">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -10012,7 +9980,7 @@
       <c r="Q205" s="12"/>
       <c r="S205" s="12"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" ht="14.4" spans="1:19">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -10032,7 +10000,7 @@
       <c r="Q206" s="12"/>
       <c r="S206" s="12"/>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" ht="14.4" spans="1:19">
       <c r="A207" s="12" t="s">
         <v>139</v>
       </c>
@@ -10074,7 +10042,7 @@
       <c r="Q207" s="12"/>
       <c r="S207" s="12"/>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" ht="14.4" spans="1:19">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -10154,7 +10122,7 @@
       <c r="Q211" s="12"/>
       <c r="S211" s="12"/>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" ht="14.4" spans="1:19">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -10174,7 +10142,7 @@
       <c r="Q212" s="12"/>
       <c r="S212" s="12"/>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" ht="14.4" spans="1:19">
       <c r="A213" s="12" t="s">
         <v>144</v>
       </c>
@@ -10216,7 +10184,7 @@
       <c r="Q213" s="12"/>
       <c r="S213" s="12"/>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" ht="14.4" spans="1:19">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -10356,7 +10324,7 @@
       <c r="Q220" s="12"/>
       <c r="S220" s="12"/>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" ht="14.4" spans="1:19">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -10376,7 +10344,7 @@
       <c r="Q221" s="12"/>
       <c r="S221" s="12"/>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" ht="14.4" spans="1:19">
       <c r="A222" s="12" t="s">
         <v>152</v>
       </c>
@@ -10418,7 +10386,7 @@
       <c r="Q222" s="12"/>
       <c r="S222" s="12"/>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" ht="14.4" spans="1:19">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -10558,7 +10526,7 @@
       <c r="Q229" s="12"/>
       <c r="S229" s="12"/>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" ht="14.4" spans="1:19">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -10578,7 +10546,7 @@
       <c r="Q230" s="12"/>
       <c r="S230" s="12"/>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" ht="14.4" spans="1:19">
       <c r="A231" s="12" t="s">
         <v>158</v>
       </c>
@@ -10620,7 +10588,7 @@
       <c r="Q231" s="12"/>
       <c r="S231" s="12"/>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" ht="14.4" spans="1:19">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -11320,7 +11288,7 @@
       <c r="Q266" s="12"/>
       <c r="S266" s="12"/>
     </row>
-    <row r="267" spans="1:19">
+    <row r="267" ht="14.4" spans="1:19">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -11340,7 +11308,7 @@
       <c r="Q267" s="12"/>
       <c r="S267" s="12"/>
     </row>
-    <row r="268" spans="1:19">
+    <row r="268" ht="14.4" spans="1:19">
       <c r="A268" s="12" t="s">
         <v>163</v>
       </c>
@@ -11382,7 +11350,7 @@
       <c r="Q268" s="12"/>
       <c r="S268" s="12"/>
     </row>
-    <row r="269" spans="1:19">
+    <row r="269" ht="14.4" spans="1:19">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -12222,7 +12190,7 @@
       <c r="Q310" s="12"/>
       <c r="S310" s="12"/>
     </row>
-    <row r="311" spans="1:19">
+    <row r="311" ht="14.4" spans="1:19">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -12242,7 +12210,7 @@
       <c r="Q311" s="12"/>
       <c r="S311" s="12"/>
     </row>
-    <row r="312" spans="1:19">
+    <row r="312" ht="14.4" spans="1:19">
       <c r="A312" s="12" t="s">
         <v>169</v>
       </c>
@@ -12284,7 +12252,7 @@
       <c r="Q312" s="12"/>
       <c r="S312" s="12"/>
     </row>
-    <row r="313" spans="1:19">
+    <row r="313" ht="14.4" spans="1:19">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -12724,7 +12692,7 @@
       <c r="Q334" s="12"/>
       <c r="S334" s="12"/>
     </row>
-    <row r="335" spans="1:19">
+    <row r="335" ht="14.4" spans="1:19">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -12744,7 +12712,7 @@
       <c r="Q335" s="12"/>
       <c r="S335" s="12"/>
     </row>
-    <row r="336" spans="1:19">
+    <row r="336" ht="14.4" spans="1:19">
       <c r="A336" s="12" t="s">
         <v>174</v>
       </c>
@@ -12786,7 +12754,7 @@
       <c r="Q336" s="12"/>
       <c r="S336" s="12"/>
     </row>
-    <row r="337" spans="1:19">
+    <row r="337" ht="14.4" spans="1:19">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -12906,7 +12874,7 @@
       <c r="Q342" s="12"/>
       <c r="S342" s="12"/>
     </row>
-    <row r="343" spans="1:19">
+    <row r="343" ht="14.4" spans="1:19">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -12926,7 +12894,7 @@
       <c r="Q343" s="12"/>
       <c r="S343" s="12"/>
     </row>
-    <row r="344" spans="1:19">
+    <row r="344" ht="14.4" spans="1:19">
       <c r="A344" s="12" t="s">
         <v>180</v>
       </c>
@@ -12968,7 +12936,7 @@
       <c r="Q344" s="12"/>
       <c r="S344" s="12"/>
     </row>
-    <row r="345" spans="1:19">
+    <row r="345" ht="14.4" spans="1:19">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -13348,7 +13316,7 @@
       <c r="Q363" s="12"/>
       <c r="S363" s="12"/>
     </row>
-    <row r="364" spans="1:19">
+    <row r="364" ht="14.4" spans="1:19">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -13368,7 +13336,7 @@
       <c r="Q364" s="12"/>
       <c r="S364" s="12"/>
     </row>
-    <row r="365" spans="1:19">
+    <row r="365" ht="14.4" spans="1:19">
       <c r="A365" s="12" t="s">
         <v>184</v>
       </c>
@@ -13410,7 +13378,7 @@
       <c r="Q365" s="12"/>
       <c r="S365" s="12"/>
     </row>
-    <row r="366" spans="1:19">
+    <row r="366" ht="14.4" spans="1:19">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -13590,7 +13558,7 @@
       <c r="Q374" s="12"/>
       <c r="S374" s="12"/>
     </row>
-    <row r="375" spans="1:19">
+    <row r="375" ht="14.4" spans="1:19">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -13610,7 +13578,7 @@
       <c r="Q375" s="12"/>
       <c r="S375" s="12"/>
     </row>
-    <row r="376" spans="1:19">
+    <row r="376" ht="14.4" spans="1:19">
       <c r="A376" s="12" t="s">
         <v>187</v>
       </c>
@@ -13652,7 +13620,7 @@
       <c r="Q376" s="12"/>
       <c r="S376" s="12"/>
     </row>
-    <row r="377" spans="1:19">
+    <row r="377" ht="14.4" spans="1:19">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -13812,7 +13780,7 @@
       <c r="Q384" s="12"/>
       <c r="S384" s="12"/>
     </row>
-    <row r="385" spans="1:19">
+    <row r="385" ht="14.4" spans="1:19">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -13832,7 +13800,7 @@
       <c r="Q385" s="12"/>
       <c r="S385" s="12"/>
     </row>
-    <row r="386" spans="1:19">
+    <row r="386" ht="14.4" spans="1:19">
       <c r="A386" s="12" t="s">
         <v>193</v>
       </c>
@@ -13874,7 +13842,7 @@
       <c r="Q386" s="12"/>
       <c r="S386" s="12"/>
     </row>
-    <row r="387" spans="1:19">
+    <row r="387" ht="14.4" spans="1:19">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -13894,7 +13862,7 @@
       <c r="Q387" s="12"/>
       <c r="S387" s="12"/>
     </row>
-    <row r="388" spans="1:19">
+    <row r="388" ht="14.4" spans="1:19">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -13914,7 +13882,7 @@
       <c r="Q388" s="12"/>
       <c r="S388" s="12"/>
     </row>
-    <row r="389" spans="1:19">
+    <row r="389" ht="14.4" spans="1:19">
       <c r="A389" s="12" t="s">
         <v>198</v>
       </c>
@@ -13956,7 +13924,7 @@
       <c r="Q389" s="12"/>
       <c r="S389" s="12"/>
     </row>
-    <row r="390" spans="1:19">
+    <row r="390" ht="14.4" spans="1:19">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -14196,7 +14164,7 @@
       <c r="Q401" s="12"/>
       <c r="S401" s="12"/>
     </row>
-    <row r="402" spans="1:19">
+    <row r="402" ht="14.4" spans="1:19">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -14216,7 +14184,7 @@
       <c r="Q402" s="12"/>
       <c r="S402" s="12"/>
     </row>
-    <row r="403" spans="1:19">
+    <row r="403" ht="14.4" spans="1:19">
       <c r="A403" s="12" t="s">
         <v>203</v>
       </c>
@@ -14258,7 +14226,7 @@
       <c r="Q403" s="12"/>
       <c r="S403" s="12"/>
     </row>
-    <row r="404" spans="1:19">
+    <row r="404" ht="14.4" spans="1:19">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -14358,7 +14326,7 @@
       <c r="Q408" s="12"/>
       <c r="S408" s="12"/>
     </row>
-    <row r="409" spans="1:19">
+    <row r="409" ht="14.4" spans="1:19">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -14378,7 +14346,7 @@
       <c r="Q409" s="12"/>
       <c r="S409" s="12"/>
     </row>
-    <row r="410" spans="1:19">
+    <row r="410" ht="14.4" spans="1:19">
       <c r="A410" s="12" t="s">
         <v>209</v>
       </c>
@@ -14420,7 +14388,7 @@
       <c r="Q410" s="12"/>
       <c r="S410" s="12"/>
     </row>
-    <row r="411" spans="1:19">
+    <row r="411" ht="14.4" spans="1:19">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -14660,7 +14628,7 @@
       <c r="Q422" s="12"/>
       <c r="S422" s="12"/>
     </row>
-    <row r="423" spans="1:19">
+    <row r="423" ht="14.4" spans="1:19">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -14680,7 +14648,7 @@
       <c r="Q423" s="12"/>
       <c r="S423" s="12"/>
     </row>
-    <row r="424" spans="1:19">
+    <row r="424" ht="14.4" spans="1:19">
       <c r="A424" s="12" t="s">
         <v>215</v>
       </c>
@@ -14722,7 +14690,7 @@
       <c r="Q424" s="12"/>
       <c r="S424" s="12"/>
     </row>
-    <row r="425" spans="1:19">
+    <row r="425" ht="14.4" spans="1:19">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -14782,7 +14750,7 @@
       <c r="Q427" s="12"/>
       <c r="S427" s="12"/>
     </row>
-    <row r="428" spans="1:19">
+    <row r="428" ht="14.4" spans="1:19">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -14802,7 +14770,7 @@
       <c r="Q428" s="12"/>
       <c r="S428" s="12"/>
     </row>
-    <row r="429" spans="1:19">
+    <row r="429" ht="14.4" spans="1:19">
       <c r="A429" s="12" t="s">
         <v>221</v>
       </c>
@@ -14844,7 +14812,7 @@
       <c r="Q429" s="12"/>
       <c r="S429" s="12"/>
     </row>
-    <row r="430" spans="1:19">
+    <row r="430" ht="14.4" spans="1:19">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -15344,7 +15312,7 @@
       <c r="Q454" s="12"/>
       <c r="S454" s="12"/>
     </row>
-    <row r="455" spans="1:19">
+    <row r="455" ht="14.4" spans="1:19">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -15364,7 +15332,7 @@
       <c r="Q455" s="12"/>
       <c r="S455" s="12"/>
     </row>
-    <row r="456" spans="1:19">
+    <row r="456" ht="14.4" spans="1:19">
       <c r="A456" s="12" t="s">
         <v>227</v>
       </c>
@@ -15406,7 +15374,7 @@
       <c r="Q456" s="12"/>
       <c r="S456" s="12"/>
     </row>
-    <row r="457" spans="1:19">
+    <row r="457" ht="14.4" spans="1:19">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -15546,7 +15514,7 @@
       <c r="Q463" s="12"/>
       <c r="S463" s="12"/>
     </row>
-    <row r="464" spans="1:19">
+    <row r="464" ht="14.4" spans="1:19">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -15566,7 +15534,7 @@
       <c r="Q464" s="12"/>
       <c r="S464" s="12"/>
     </row>
-    <row r="465" spans="1:19">
+    <row r="465" ht="14.4" spans="1:19">
       <c r="A465" s="12" t="s">
         <v>232</v>
       </c>
@@ -15608,7 +15576,7 @@
       <c r="Q465" s="12"/>
       <c r="S465" s="12"/>
     </row>
-    <row r="466" spans="1:19">
+    <row r="466" ht="14.4" spans="1:19">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -15808,7 +15776,7 @@
       <c r="Q475" s="12"/>
       <c r="S475" s="12"/>
     </row>
-    <row r="476" spans="1:19">
+    <row r="476" ht="14.4" spans="1:19">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -15828,7 +15796,7 @@
       <c r="Q476" s="12"/>
       <c r="S476" s="12"/>
     </row>
-    <row r="477" spans="1:19">
+    <row r="477" ht="14.4" spans="1:19">
       <c r="A477" s="12" t="s">
         <v>238</v>
       </c>
@@ -15870,7 +15838,7 @@
       <c r="Q477" s="12"/>
       <c r="S477" s="12"/>
     </row>
-    <row r="478" spans="1:19">
+    <row r="478" ht="14.4" spans="1:19">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -16050,7 +16018,7 @@
       <c r="Q486" s="12"/>
       <c r="S486" s="12"/>
     </row>
-    <row r="487" spans="1:19">
+    <row r="487" ht="14.4" spans="1:19">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -16070,7 +16038,7 @@
       <c r="Q487" s="12"/>
       <c r="S487" s="12"/>
     </row>
-    <row r="488" spans="1:19">
+    <row r="488" ht="14.4" spans="1:19">
       <c r="A488" s="12" t="s">
         <v>243</v>
       </c>
@@ -16112,7 +16080,7 @@
       <c r="Q488" s="12"/>
       <c r="S488" s="12"/>
     </row>
-    <row r="489" spans="1:19">
+    <row r="489" ht="14.4" spans="1:19">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -16852,7 +16820,7 @@
       <c r="Q525" s="12"/>
       <c r="S525" s="12"/>
     </row>
-    <row r="526" spans="1:19">
+    <row r="526" ht="14.4" spans="1:19">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
       <c r="C526" s="12"/>
@@ -16872,7 +16840,7 @@
       <c r="Q526" s="12"/>
       <c r="S526" s="12"/>
     </row>
-    <row r="527" spans="1:19">
+    <row r="527" ht="14.4" spans="1:19">
       <c r="A527" s="12" t="s">
         <v>249</v>
       </c>
@@ -16914,7 +16882,7 @@
       <c r="Q527" s="12"/>
       <c r="S527" s="12"/>
     </row>
-    <row r="528" spans="1:19">
+    <row r="528" ht="14.4" spans="1:19">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
       <c r="C528" s="12"/>
@@ -17094,7 +17062,7 @@
       <c r="Q536" s="12"/>
       <c r="S536" s="12"/>
     </row>
-    <row r="537" spans="1:19">
+    <row r="537" ht="14.4" spans="1:19">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
       <c r="C537" s="12"/>
@@ -17114,7 +17082,7 @@
       <c r="Q537" s="12"/>
       <c r="S537" s="12"/>
     </row>
-    <row r="538" spans="1:19">
+    <row r="538" ht="14.4" spans="1:19">
       <c r="A538" s="12" t="s">
         <v>255</v>
       </c>
@@ -17156,7 +17124,7 @@
       <c r="Q538" s="12"/>
       <c r="S538" s="12"/>
     </row>
-    <row r="539" spans="1:19">
+    <row r="539" ht="14.4" spans="1:19">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
@@ -17296,7 +17264,7 @@
       <c r="Q545" s="12"/>
       <c r="S545" s="12"/>
     </row>
-    <row r="546" spans="1:19">
+    <row r="546" ht="14.4" spans="1:19">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
@@ -17316,7 +17284,7 @@
       <c r="Q546" s="12"/>
       <c r="S546" s="12"/>
     </row>
-    <row r="547" spans="1:19">
+    <row r="547" ht="14.4" spans="1:19">
       <c r="A547" s="12" t="s">
         <v>260</v>
       </c>
@@ -17358,7 +17326,7 @@
       <c r="Q547" s="12"/>
       <c r="S547" s="12"/>
     </row>
-    <row r="548" spans="1:19">
+    <row r="548" ht="14.4" spans="1:19">
       <c r="A548" s="12"/>
       <c r="B548" s="12"/>
       <c r="C548" s="12"/>
@@ -17538,7 +17506,7 @@
       <c r="Q556" s="12"/>
       <c r="S556" s="12"/>
     </row>
-    <row r="557" spans="1:19">
+    <row r="557" ht="14.4" spans="1:19">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
       <c r="C557" s="12"/>
@@ -17558,7 +17526,7 @@
       <c r="Q557" s="12"/>
       <c r="S557" s="12"/>
     </row>
-    <row r="558" spans="1:19">
+    <row r="558" ht="14.4" spans="1:19">
       <c r="A558" s="16" t="s">
         <v>266</v>
       </c>
@@ -17600,7 +17568,7 @@
       <c r="Q558" s="16"/>
       <c r="S558" s="16"/>
     </row>
-    <row r="559" spans="1:19">
+    <row r="559" ht="14.4" spans="1:19">
       <c r="A559" s="18"/>
       <c r="B559" s="18"/>
       <c r="C559" s="18"/>
@@ -18980,7 +18948,7 @@
       <c r="Q627" s="18"/>
       <c r="S627" s="18"/>
     </row>
-    <row r="628" spans="1:19">
+    <row r="628" ht="14.4" spans="1:19">
       <c r="A628" s="20"/>
       <c r="B628" s="20"/>
       <c r="C628" s="20"/>
@@ -19000,7 +18968,7 @@
       <c r="Q628" s="20"/>
       <c r="S628" s="20"/>
     </row>
-    <row r="629" spans="1:19">
+    <row r="629" ht="14.4" spans="1:19">
       <c r="A629" s="12" t="s">
         <v>271</v>
       </c>
@@ -19042,7 +19010,7 @@
       <c r="Q629" s="12"/>
       <c r="S629" s="12"/>
     </row>
-    <row r="630" spans="1:19">
+    <row r="630" ht="14.4" spans="1:19">
       <c r="A630" s="12"/>
       <c r="B630" s="12"/>
       <c r="C630" s="12"/>
@@ -19422,7 +19390,7 @@
       <c r="Q648" s="12"/>
       <c r="S648" s="12"/>
     </row>
-    <row r="649" spans="1:19">
+    <row r="649" ht="14.4" spans="1:19">
       <c r="A649" s="12"/>
       <c r="B649" s="12"/>
       <c r="C649" s="12"/>
@@ -19442,7 +19410,7 @@
       <c r="Q649" s="12"/>
       <c r="S649" s="12"/>
     </row>
-    <row r="650" spans="1:19">
+    <row r="650" ht="14.4" spans="1:19">
       <c r="A650" s="12" t="s">
         <v>275</v>
       </c>
@@ -19484,7 +19452,7 @@
       <c r="Q650" s="12"/>
       <c r="S650" s="12"/>
     </row>
-    <row r="651" spans="1:19">
+    <row r="651" ht="14.4" spans="1:19">
       <c r="A651" s="12"/>
       <c r="B651" s="12"/>
       <c r="C651" s="12"/>
@@ -19944,7 +19912,7 @@
       <c r="Q673" s="12"/>
       <c r="S673" s="12"/>
     </row>
-    <row r="674" spans="1:19">
+    <row r="674" ht="14.4" spans="1:19">
       <c r="A674" s="12"/>
       <c r="B674" s="12"/>
       <c r="C674" s="12"/>
@@ -19964,7 +19932,7 @@
       <c r="Q674" s="12"/>
       <c r="S674" s="12"/>
     </row>
-    <row r="675" spans="1:19">
+    <row r="675" ht="14.4" spans="1:19">
       <c r="A675" s="12" t="s">
         <v>280</v>
       </c>
@@ -20006,7 +19974,7 @@
       <c r="Q675" s="12"/>
       <c r="S675" s="12"/>
     </row>
-    <row r="676" spans="1:19">
+    <row r="676" ht="14.4" spans="1:19">
       <c r="A676" s="12"/>
       <c r="B676" s="12"/>
       <c r="C676" s="12"/>
@@ -20426,7 +20394,7 @@
       <c r="Q696" s="12"/>
       <c r="S696" s="12"/>
     </row>
-    <row r="697" spans="1:19">
+    <row r="697" ht="14.4" spans="1:19">
       <c r="A697" s="12"/>
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
@@ -20446,7 +20414,7 @@
       <c r="Q697" s="12"/>
       <c r="S697" s="12"/>
     </row>
-    <row r="698" spans="1:19">
+    <row r="698" ht="14.4" spans="1:19">
       <c r="A698" s="12" t="s">
         <v>286</v>
       </c>
@@ -20488,7 +20456,7 @@
       <c r="Q698" s="12"/>
       <c r="S698" s="12"/>
     </row>
-    <row r="699" spans="1:19">
+    <row r="699" ht="14.4" spans="1:19">
       <c r="A699" s="12"/>
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
@@ -21028,7 +20996,7 @@
       <c r="Q725" s="12"/>
       <c r="S725" s="12"/>
     </row>
-    <row r="726" spans="1:19">
+    <row r="726" ht="14.4" spans="1:19">
       <c r="A726" s="12"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -21048,7 +21016,7 @@
       <c r="Q726" s="12"/>
       <c r="S726" s="12"/>
     </row>
-    <row r="727" spans="1:19">
+    <row r="727" ht="14.4" spans="1:19">
       <c r="A727" s="12" t="s">
         <v>293</v>
       </c>
@@ -21090,7 +21058,7 @@
       <c r="Q727" s="12"/>
       <c r="S727" s="12"/>
     </row>
-    <row r="728" spans="1:19">
+    <row r="728" ht="14.4" spans="1:19">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -21410,7 +21378,7 @@
       <c r="Q743" s="12"/>
       <c r="S743" s="12"/>
     </row>
-    <row r="744" spans="1:19">
+    <row r="744" ht="14.4" spans="1:19">
       <c r="A744" s="12"/>
       <c r="B744" s="12"/>
       <c r="C744" s="12"/>
@@ -21430,7 +21398,7 @@
       <c r="Q744" s="12"/>
       <c r="S744" s="12"/>
     </row>
-    <row r="745" spans="1:19">
+    <row r="745" ht="14.4" spans="1:19">
       <c r="A745" s="12" t="s">
         <v>298</v>
       </c>
@@ -21472,7 +21440,7 @@
       <c r="Q745" s="12"/>
       <c r="S745" s="12"/>
     </row>
-    <row r="746" spans="1:19">
+    <row r="746" ht="14.4" spans="1:19">
       <c r="A746" s="12"/>
       <c r="B746" s="12"/>
       <c r="C746" s="12"/>
@@ -21772,7 +21740,7 @@
       <c r="Q760" s="12"/>
       <c r="S760" s="12"/>
     </row>
-    <row r="761" spans="1:19">
+    <row r="761" ht="14.4" spans="1:19">
       <c r="A761" s="12"/>
       <c r="B761" s="12"/>
       <c r="C761" s="12"/>
@@ -21792,7 +21760,7 @@
       <c r="Q761" s="12"/>
       <c r="S761" s="12"/>
     </row>
-    <row r="762" spans="1:19">
+    <row r="762" ht="14.4" spans="1:19">
       <c r="A762" s="12" t="s">
         <v>304</v>
       </c>
@@ -21834,7 +21802,7 @@
       <c r="Q762" s="12"/>
       <c r="S762" s="12"/>
     </row>
-    <row r="763" spans="1:19">
+    <row r="763" ht="14.4" spans="1:19">
       <c r="A763" s="12"/>
       <c r="B763" s="12"/>
       <c r="C763" s="12"/>
@@ -21974,7 +21942,7 @@
       <c r="Q769" s="12"/>
       <c r="S769" s="12"/>
     </row>
-    <row r="770" spans="1:19">
+    <row r="770" ht="14.4" spans="1:19">
       <c r="A770" s="12"/>
       <c r="B770" s="12"/>
       <c r="C770" s="12"/>
@@ -21994,7 +21962,7 @@
       <c r="Q770" s="12"/>
       <c r="S770" s="12"/>
     </row>
-    <row r="771" spans="1:19">
+    <row r="771" ht="14.4" spans="1:19">
       <c r="A771" s="12" t="s">
         <v>310</v>
       </c>
@@ -22036,7 +22004,7 @@
       <c r="Q771" s="12"/>
       <c r="S771" s="12"/>
     </row>
-    <row r="772" spans="1:19">
+    <row r="772" ht="14.4" spans="1:19">
       <c r="A772" s="12"/>
       <c r="B772" s="12"/>
       <c r="C772" s="12"/>
@@ -22176,7 +22144,7 @@
       <c r="Q778" s="12"/>
       <c r="S778" s="12"/>
     </row>
-    <row r="779" spans="1:19">
+    <row r="779" ht="14.4" spans="1:19">
       <c r="A779" s="12"/>
       <c r="B779" s="12"/>
       <c r="C779" s="12"/>
@@ -22196,7 +22164,7 @@
       <c r="Q779" s="12"/>
       <c r="S779" s="12"/>
     </row>
-    <row r="780" spans="1:19">
+    <row r="780" ht="14.4" spans="1:19">
       <c r="A780" s="12" t="s">
         <v>315</v>
       </c>
@@ -22238,7 +22206,7 @@
       <c r="Q780" s="12"/>
       <c r="S780" s="12"/>
     </row>
-    <row r="781" spans="1:19">
+    <row r="781" ht="14.4" spans="1:19">
       <c r="A781" s="12"/>
       <c r="B781" s="12"/>
       <c r="C781" s="12"/>
@@ -22738,7 +22706,7 @@
       <c r="Q805" s="12"/>
       <c r="S805" s="12"/>
     </row>
-    <row r="806" spans="1:19">
+    <row r="806" ht="14.4" spans="1:19">
       <c r="A806" s="12"/>
       <c r="B806" s="12"/>
       <c r="C806" s="12"/>
@@ -22758,7 +22726,7 @@
       <c r="Q806" s="12"/>
       <c r="S806" s="12"/>
     </row>
-    <row r="807" spans="1:19">
+    <row r="807" ht="14.4" spans="1:19">
       <c r="A807" s="12" t="s">
         <v>320</v>
       </c>
@@ -22800,7 +22768,7 @@
       <c r="Q807" s="12"/>
       <c r="S807" s="12"/>
     </row>
-    <row r="808" spans="1:19">
+    <row r="808" ht="14.4" spans="1:19">
       <c r="A808" s="12"/>
       <c r="B808" s="12"/>
       <c r="C808" s="12"/>
@@ -23120,7 +23088,7 @@
       <c r="Q823" s="12"/>
       <c r="S823" s="12"/>
     </row>
-    <row r="824" spans="1:19">
+    <row r="824" ht="14.4" spans="1:19">
       <c r="A824" s="12"/>
       <c r="B824" s="12"/>
       <c r="C824" s="12"/>
@@ -23140,7 +23108,7 @@
       <c r="Q824" s="12"/>
       <c r="S824" s="12"/>
     </row>
-    <row r="825" spans="1:19">
+    <row r="825" ht="14.4" spans="1:19">
       <c r="A825" s="12" t="s">
         <v>326</v>
       </c>
@@ -23182,7 +23150,7 @@
       <c r="Q825" s="12"/>
       <c r="S825" s="12"/>
     </row>
-    <row r="826" spans="1:19">
+    <row r="826" ht="14.4" spans="1:19">
       <c r="A826" s="12"/>
       <c r="B826" s="12"/>
       <c r="C826" s="12"/>
@@ -23442,7 +23410,7 @@
       <c r="Q838" s="12"/>
       <c r="S838" s="12"/>
     </row>
-    <row r="839" spans="1:19">
+    <row r="839" ht="14.4" spans="1:19">
       <c r="A839" s="12"/>
       <c r="B839" s="12"/>
       <c r="C839" s="12"/>
@@ -23462,7 +23430,7 @@
       <c r="Q839" s="12"/>
       <c r="S839" s="12"/>
     </row>
-    <row r="840" spans="1:19">
+    <row r="840" ht="14.4" spans="1:19">
       <c r="A840" s="12" t="s">
         <v>331</v>
       </c>
@@ -23504,7 +23472,7 @@
       <c r="Q840" s="12"/>
       <c r="S840" s="12"/>
     </row>
-    <row r="841" spans="1:19">
+    <row r="841" ht="14.4" spans="1:19">
       <c r="A841" s="12"/>
       <c r="B841" s="12"/>
       <c r="C841" s="12"/>
@@ -23624,7 +23592,7 @@
       <c r="Q846" s="12"/>
       <c r="S846" s="12"/>
     </row>
-    <row r="847" spans="1:19">
+    <row r="847" ht="14.4" spans="1:19">
       <c r="A847" s="12"/>
       <c r="B847" s="12"/>
       <c r="C847" s="12"/>
@@ -23644,7 +23612,7 @@
       <c r="Q847" s="12"/>
       <c r="S847" s="12"/>
     </row>
-    <row r="848" spans="1:19">
+    <row r="848" ht="14.4" spans="1:19">
       <c r="A848" s="12" t="s">
         <v>337</v>
       </c>
@@ -23686,7 +23654,7 @@
       <c r="Q848" s="12"/>
       <c r="S848" s="12"/>
     </row>
-    <row r="849" spans="1:19">
+    <row r="849" ht="14.4" spans="1:19">
       <c r="A849" s="12"/>
       <c r="B849" s="12"/>
       <c r="C849" s="12"/>
@@ -23786,7 +23754,7 @@
       <c r="Q853" s="12"/>
       <c r="S853" s="12"/>
     </row>
-    <row r="854" spans="1:19">
+    <row r="854" ht="14.4" spans="1:19">
       <c r="A854" s="12"/>
       <c r="B854" s="12"/>
       <c r="C854" s="12"/>
@@ -23806,7 +23774,7 @@
       <c r="Q854" s="12"/>
       <c r="S854" s="12"/>
     </row>
-    <row r="855" spans="1:19">
+    <row r="855" ht="14.4" spans="1:19">
       <c r="A855" s="12" t="s">
         <v>344</v>
       </c>
@@ -23848,7 +23816,7 @@
       <c r="Q855" s="12"/>
       <c r="S855" s="12"/>
     </row>
-    <row r="856" spans="1:19">
+    <row r="856" ht="14.4" spans="1:19">
       <c r="A856" s="12"/>
       <c r="B856" s="12"/>
       <c r="C856" s="12"/>
@@ -24288,7 +24256,7 @@
       <c r="Q877" s="12"/>
       <c r="S877" s="12"/>
     </row>
-    <row r="878" spans="1:19">
+    <row r="878" ht="14.4" spans="1:19">
       <c r="A878" s="12"/>
       <c r="B878" s="12"/>
       <c r="C878" s="12"/>
@@ -24308,7 +24276,7 @@
       <c r="Q878" s="12"/>
       <c r="S878" s="12"/>
     </row>
-    <row r="879" spans="1:19">
+    <row r="879" ht="14.4" spans="1:19">
       <c r="A879" s="12" t="s">
         <v>351</v>
       </c>
@@ -24350,7 +24318,7 @@
       <c r="Q879" s="12"/>
       <c r="S879" s="12"/>
     </row>
-    <row r="880" spans="1:19">
+    <row r="880" ht="14.4" spans="1:19">
       <c r="A880" s="12"/>
       <c r="B880" s="12"/>
       <c r="C880" s="12"/>
@@ -24430,7 +24398,7 @@
       <c r="Q883" s="12"/>
       <c r="S883" s="12"/>
     </row>
-    <row r="884" spans="1:19">
+    <row r="884" ht="14.4" spans="1:19">
       <c r="A884" s="12"/>
       <c r="B884" s="12"/>
       <c r="C884" s="12"/>
@@ -24450,7 +24418,7 @@
       <c r="Q884" s="12"/>
       <c r="S884" s="12"/>
     </row>
-    <row r="885" spans="1:19">
+    <row r="885" ht="14.4" spans="1:19">
       <c r="A885" s="12" t="s">
         <v>356</v>
       </c>
@@ -24492,7 +24460,7 @@
       <c r="Q885" s="12"/>
       <c r="S885" s="12"/>
     </row>
-    <row r="886" spans="1:19">
+    <row r="886" ht="14.4" spans="1:19">
       <c r="A886" s="12"/>
       <c r="B886" s="12"/>
       <c r="C886" s="12"/>
@@ -24652,7 +24620,7 @@
       <c r="Q893" s="12"/>
       <c r="S893" s="12"/>
     </row>
-    <row r="894" spans="1:19">
+    <row r="894" ht="14.4" spans="1:19">
       <c r="A894" s="12"/>
       <c r="B894" s="12"/>
       <c r="C894" s="12"/>
@@ -24672,7 +24640,7 @@
       <c r="Q894" s="12"/>
       <c r="S894" s="12"/>
     </row>
-    <row r="895" spans="1:19">
+    <row r="895" ht="14.4" spans="1:19">
       <c r="A895" s="12" t="s">
         <v>362</v>
       </c>
@@ -24714,7 +24682,7 @@
       <c r="Q895" s="12"/>
       <c r="S895" s="12"/>
     </row>
-    <row r="896" spans="1:19">
+    <row r="896" ht="14.4" spans="1:19">
       <c r="A896" s="12"/>
       <c r="B896" s="12"/>
       <c r="C896" s="12"/>
@@ -24874,7 +24842,7 @@
       <c r="Q903" s="12"/>
       <c r="S903" s="12"/>
     </row>
-    <row r="904" spans="1:19">
+    <row r="904" ht="14.4" spans="1:19">
       <c r="A904" s="12"/>
       <c r="B904" s="12"/>
       <c r="C904" s="12"/>
@@ -24894,7 +24862,7 @@
       <c r="Q904" s="12"/>
       <c r="S904" s="12"/>
     </row>
-    <row r="905" spans="1:19">
+    <row r="905" ht="14.4" spans="1:19">
       <c r="A905" s="12" t="s">
         <v>368</v>
       </c>
@@ -24936,7 +24904,7 @@
       <c r="Q905" s="12"/>
       <c r="S905" s="12"/>
     </row>
-    <row r="906" spans="1:19">
+    <row r="906" ht="14.4" spans="1:19">
       <c r="A906" s="12"/>
       <c r="B906" s="12"/>
       <c r="C906" s="12"/>
@@ -25296,7 +25264,7 @@
       <c r="Q923" s="12"/>
       <c r="S923" s="12"/>
     </row>
-    <row r="924" spans="1:19">
+    <row r="924" ht="14.4" spans="1:19">
       <c r="A924" s="12"/>
       <c r="B924" s="12"/>
       <c r="C924" s="12"/>
@@ -25316,7 +25284,7 @@
       <c r="Q924" s="12"/>
       <c r="S924" s="12"/>
     </row>
-    <row r="925" spans="1:19">
+    <row r="925" ht="14.4" spans="1:19">
       <c r="A925" s="12" t="s">
         <v>374</v>
       </c>
@@ -25358,7 +25326,7 @@
       <c r="Q925" s="12"/>
       <c r="S925" s="12"/>
     </row>
-    <row r="926" spans="1:19">
+    <row r="926" ht="14.4" spans="1:19">
       <c r="A926" s="12"/>
       <c r="B926" s="12"/>
       <c r="C926" s="12"/>
@@ -25438,7 +25406,7 @@
       <c r="Q929" s="12"/>
       <c r="S929" s="12"/>
     </row>
-    <row r="930" spans="1:19">
+    <row r="930" ht="14.4" spans="1:19">
       <c r="A930" s="12"/>
       <c r="B930" s="12"/>
       <c r="C930" s="12"/>
@@ -25458,7 +25426,7 @@
       <c r="Q930" s="12"/>
       <c r="S930" s="12"/>
     </row>
-    <row r="931" spans="1:19">
+    <row r="931" ht="14.4" spans="1:19">
       <c r="A931" s="12" t="s">
         <v>380</v>
       </c>
@@ -25500,7 +25468,7 @@
       <c r="Q931" s="12"/>
       <c r="S931" s="12"/>
     </row>
-    <row r="932" spans="1:19">
+    <row r="932" ht="14.4" spans="1:19">
       <c r="A932" s="12"/>
       <c r="B932" s="12"/>
       <c r="C932" s="12"/>
@@ -25520,7 +25488,7 @@
       <c r="Q932" s="12"/>
       <c r="S932" s="12"/>
     </row>
-    <row r="933" spans="1:19">
+    <row r="933" ht="14.4" spans="1:19">
       <c r="A933" s="12"/>
       <c r="B933" s="12"/>
       <c r="C933" s="12"/>
@@ -25540,7 +25508,7 @@
       <c r="Q933" s="12"/>
       <c r="S933" s="12"/>
     </row>
-    <row r="934" spans="1:19">
+    <row r="934" ht="14.4" spans="1:19">
       <c r="A934" s="12" t="s">
         <v>386</v>
       </c>
@@ -25582,7 +25550,7 @@
       <c r="Q934" s="12"/>
       <c r="S934" s="12"/>
     </row>
-    <row r="935" spans="1:19">
+    <row r="935" ht="14.4" spans="1:19">
       <c r="A935" s="12"/>
       <c r="B935" s="12"/>
       <c r="C935" s="12"/>
@@ -26042,7 +26010,7 @@
       <c r="Q957" s="12"/>
       <c r="S957" s="12"/>
     </row>
-    <row r="958" spans="1:19">
+    <row r="958" ht="14.4" spans="1:19">
       <c r="A958" s="12"/>
       <c r="B958" s="12"/>
       <c r="C958" s="12"/>
@@ -26062,7 +26030,7 @@
       <c r="Q958" s="12"/>
       <c r="S958" s="12"/>
     </row>
-    <row r="959" spans="1:19">
+    <row r="959" ht="14.4" spans="1:19">
       <c r="A959" s="12" t="s">
         <v>392</v>
       </c>
@@ -26104,7 +26072,7 @@
       <c r="Q959" s="12"/>
       <c r="S959" s="12"/>
     </row>
-    <row r="960" spans="1:19">
+    <row r="960" ht="14.4" spans="1:19">
       <c r="A960" s="12"/>
       <c r="B960" s="12"/>
       <c r="C960" s="12"/>
@@ -26324,7 +26292,7 @@
       <c r="Q970" s="12"/>
       <c r="S970" s="12"/>
     </row>
-    <row r="971" spans="1:19">
+    <row r="971" ht="14.4" spans="1:19">
       <c r="A971" s="12"/>
       <c r="B971" s="12"/>
       <c r="C971" s="12"/>
@@ -26344,7 +26312,7 @@
       <c r="Q971" s="12"/>
       <c r="S971" s="12"/>
     </row>
-    <row r="972" spans="1:19">
+    <row r="972" ht="14.4" spans="1:19">
       <c r="A972" s="12" t="s">
         <v>398</v>
       </c>
@@ -26386,7 +26354,7 @@
       <c r="Q972" s="12"/>
       <c r="S972" s="12"/>
     </row>
-    <row r="973" spans="1:19">
+    <row r="973" ht="14.4" spans="1:19">
       <c r="A973" s="12"/>
       <c r="B973" s="12"/>
       <c r="C973" s="12"/>
@@ -26406,7 +26374,7 @@
       <c r="Q973" s="12"/>
       <c r="S973" s="12"/>
     </row>
-    <row r="974" spans="1:19">
+    <row r="974" ht="14.4" spans="1:19">
       <c r="A974" s="12"/>
       <c r="B974" s="12"/>
       <c r="C974" s="12"/>
@@ -30392,7 +30360,7 @@
         <v>635</v>
       </c>
       <c r="F1130" s="27" t="s">
-        <v>636</v>
+        <v>503</v>
       </c>
       <c r="G1130" s="25" t="s">
         <v>494</v>
@@ -30406,10 +30374,10 @@
       <c r="J1130" s="32"/>
       <c r="K1130" s="35"/>
       <c r="L1130" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="M1130" s="26" t="s">
         <v>637</v>
-      </c>
-      <c r="M1130" s="26" t="s">
-        <v>638</v>
       </c>
       <c r="N1130" s="33"/>
       <c r="O1130" s="33"/>
@@ -30479,7 +30447,7 @@
     </row>
     <row r="1134" ht="78.75" customHeight="1" spans="1:19">
       <c r="A1134" s="25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B1134" s="26" t="s">
         <v>50</v>
@@ -30488,13 +30456,13 @@
         <v>471</v>
       </c>
       <c r="D1134" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E1134" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F1134" s="27" t="s">
-        <v>636</v>
+        <v>503</v>
       </c>
       <c r="G1134" s="25" t="s">
         <v>494</v>
@@ -30508,10 +30476,10 @@
       <c r="J1134" s="32"/>
       <c r="K1134" s="35"/>
       <c r="L1134" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="M1134" s="26" t="s">
         <v>641</v>
-      </c>
-      <c r="M1134" s="26" t="s">
-        <v>642</v>
       </c>
       <c r="N1134" s="33"/>
       <c r="O1134" s="33"/>
@@ -30561,7 +30529,7 @@
     </row>
     <row r="1137" ht="78" spans="1:19">
       <c r="A1137" s="26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B1137" s="26" t="s">
         <v>50</v>
@@ -30570,10 +30538,10 @@
         <v>521</v>
       </c>
       <c r="D1137" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="E1137" s="26" t="s">
         <v>644</v>
-      </c>
-      <c r="E1137" s="26" t="s">
-        <v>645</v>
       </c>
       <c r="F1137" s="27" t="s">
         <v>569</v>
@@ -30591,7 +30559,7 @@
       <c r="K1137" s="35"/>
       <c r="L1137" s="32"/>
       <c r="M1137" s="26" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N1137" s="33"/>
       <c r="O1137" s="33"/>
@@ -30601,7 +30569,7 @@
     </row>
     <row r="1138" ht="140.4" spans="1:19">
       <c r="A1138" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B1138" s="26" t="s">
         <v>50</v>
@@ -30610,13 +30578,13 @@
         <v>528</v>
       </c>
       <c r="D1138" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1138" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="E1138" s="26" t="s">
+      <c r="F1138" s="27" t="s">
         <v>649</v>
-      </c>
-      <c r="F1138" s="27" t="s">
-        <v>650</v>
       </c>
       <c r="G1138" s="26" t="s">
         <v>494</v>
@@ -30631,7 +30599,7 @@
       <c r="K1138" s="35"/>
       <c r="L1138" s="32"/>
       <c r="M1138" s="26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N1138" s="33"/>
       <c r="O1138" s="33"/>
@@ -30641,22 +30609,22 @@
     </row>
     <row r="1139" ht="78.75" customHeight="1" spans="1:19">
       <c r="A1139" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B1139" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C1139" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1139" s="26" t="s">
         <v>653</v>
       </c>
-      <c r="D1139" s="26" t="s">
+      <c r="E1139" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="E1139" s="26" t="s">
+      <c r="F1139" s="27" t="s">
         <v>655</v>
-      </c>
-      <c r="F1139" s="27" t="s">
-        <v>656</v>
       </c>
       <c r="G1139" s="25" t="s">
         <v>494</v>
@@ -30671,7 +30639,7 @@
       <c r="K1139" s="35"/>
       <c r="L1139" s="32"/>
       <c r="M1139" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N1139" s="33"/>
       <c r="O1139" s="33"/>
@@ -30801,7 +30769,7 @@
     </row>
     <row r="1146" ht="78.75" customHeight="1" spans="1:19">
       <c r="A1146" s="25" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B1146" s="26" t="s">
         <v>50</v>
@@ -30810,13 +30778,13 @@
         <v>490</v>
       </c>
       <c r="D1146" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="E1146" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="E1146" s="26" t="s">
-        <v>660</v>
-      </c>
       <c r="F1146" s="27" t="s">
-        <v>636</v>
+        <v>503</v>
       </c>
       <c r="G1146" s="25" t="s">
         <v>494</v>
@@ -30830,10 +30798,10 @@
       <c r="J1146" s="32"/>
       <c r="K1146" s="35"/>
       <c r="L1146" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="M1146" s="26" t="s">
         <v>661</v>
-      </c>
-      <c r="M1146" s="26" t="s">
-        <v>662</v>
       </c>
       <c r="N1146" s="33"/>
       <c r="O1146" s="33"/>
@@ -30863,7 +30831,7 @@
     </row>
     <row r="1148" ht="78.75" customHeight="1" spans="1:19">
       <c r="A1148" s="25" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1148" s="26" t="s">
         <v>50</v>
@@ -30872,13 +30840,13 @@
         <v>521</v>
       </c>
       <c r="D1148" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E1148" s="26" t="s">
         <v>257</v>
       </c>
       <c r="F1148" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G1148" s="26" t="s">
         <v>494</v>
@@ -30893,7 +30861,7 @@
       <c r="K1148" s="35"/>
       <c r="L1148" s="32"/>
       <c r="M1148" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N1148" s="33"/>
       <c r="O1148" s="33"/>
@@ -30923,7 +30891,7 @@
     </row>
     <row r="1150" ht="78.75" customHeight="1" spans="1:19">
       <c r="A1150" s="25" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B1150" s="26" t="s">
         <v>50</v>
@@ -30932,13 +30900,13 @@
         <v>465</v>
       </c>
       <c r="D1150" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E1150" s="26" t="s">
         <v>322</v>
       </c>
       <c r="F1150" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G1150" s="25" t="s">
         <v>494</v>
@@ -30952,10 +30920,10 @@
       <c r="J1150" s="32"/>
       <c r="K1150" s="35"/>
       <c r="L1150" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="M1150" s="26" t="s">
         <v>669</v>
-      </c>
-      <c r="M1150" s="26" t="s">
-        <v>670</v>
       </c>
       <c r="N1150" s="33"/>
       <c r="O1150" s="26"/>
@@ -31005,7 +30973,7 @@
     </row>
     <row r="1153" ht="78" spans="1:19">
       <c r="A1153" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B1153" s="26" t="s">
         <v>50</v>
@@ -31014,13 +30982,13 @@
         <v>490</v>
       </c>
       <c r="D1153" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1153" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="E1153" s="26" t="s">
+      <c r="F1153" s="27" t="s">
         <v>673</v>
-      </c>
-      <c r="F1153" s="27" t="s">
-        <v>674</v>
       </c>
       <c r="G1153" s="26" t="s">
         <v>494</v>
@@ -31034,10 +31002,10 @@
       <c r="J1153" s="32"/>
       <c r="K1153" s="35"/>
       <c r="L1153" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="M1153" s="26" t="s">
         <v>675</v>
-      </c>
-      <c r="M1153" s="26" t="s">
-        <v>676</v>
       </c>
       <c r="N1153" s="33"/>
       <c r="O1153" s="33"/>
@@ -31047,7 +31015,7 @@
     </row>
     <row r="1154" ht="78" spans="1:19">
       <c r="A1154" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B1154" s="26" t="s">
         <v>50</v>
@@ -31056,13 +31024,13 @@
         <v>452</v>
       </c>
       <c r="D1154" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="E1154" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="E1154" s="26" t="s">
-        <v>679</v>
-      </c>
       <c r="F1154" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G1154" s="26" t="s">
         <v>494</v>
@@ -31071,15 +31039,15 @@
         <v>45</v>
       </c>
       <c r="I1154" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J1154" s="32"/>
       <c r="K1154" s="35"/>
       <c r="L1154" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="M1154" s="26" t="s">
         <v>681</v>
-      </c>
-      <c r="M1154" s="26" t="s">
-        <v>682</v>
       </c>
       <c r="N1154" s="33"/>
       <c r="O1154" s="33"/>
@@ -31089,7 +31057,7 @@
     </row>
     <row r="1155" ht="78" spans="1:19">
       <c r="A1155" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B1155" s="26" t="s">
         <v>50</v>
@@ -31104,7 +31072,7 @@
         <v>306</v>
       </c>
       <c r="F1155" s="27" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="G1155" s="26" t="s">
         <v>494</v>
@@ -31248,7 +31216,7 @@
         <v>697</v>
       </c>
       <c r="F1159" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G1159" s="25" t="s">
         <v>494</v>
@@ -31474,7 +31442,7 @@
         <v>711</v>
       </c>
       <c r="F1167" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G1167" s="25" t="s">
         <v>494</v>
@@ -32046,7 +32014,7 @@
         <v>752</v>
       </c>
       <c r="F1187" s="27" t="s">
-        <v>636</v>
+        <v>503</v>
       </c>
       <c r="G1187" s="26" t="s">
         <v>494</v>
@@ -33356,7 +33324,7 @@
         <v>841</v>
       </c>
       <c r="F1235" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G1235" s="25" t="s">
         <v>494</v>
@@ -33620,7 +33588,7 @@
         <v>860</v>
       </c>
       <c r="F1246" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G1246" s="25" t="s">
         <v>494</v>
@@ -34086,10 +34054,10 @@
         <v>877</v>
       </c>
       <c r="F1266" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="G1266" s="40" t="s">
         <v>878</v>
-      </c>
-      <c r="G1266" s="40" t="s">
-        <v>879</v>
       </c>
       <c r="H1266" s="26" t="s">
         <v>45</v>
@@ -34100,10 +34068,10 @@
       <c r="J1266" s="26"/>
       <c r="K1266" s="26"/>
       <c r="L1266" s="26" t="s">
+        <v>879</v>
+      </c>
+      <c r="M1266" s="26" t="s">
         <v>880</v>
-      </c>
-      <c r="M1266" s="26" t="s">
-        <v>881</v>
       </c>
       <c r="N1266" s="32"/>
       <c r="O1266" s="32"/>
@@ -34151,7 +34119,7 @@
       <c r="Q1268" s="32"/>
       <c r="S1268" s="32"/>
     </row>
-    <row r="1269" ht="142" customHeight="1" spans="1:19">
+    <row r="1269" ht="141.95" customHeight="1" spans="1:19">
       <c r="A1269" s="36"/>
       <c r="B1269" s="26"/>
       <c r="C1269" s="39"/>
@@ -34171,9 +34139,9 @@
       <c r="Q1269" s="32"/>
       <c r="S1269" s="32"/>
     </row>
-    <row r="1270" ht="212" customHeight="1" spans="1:19">
+    <row r="1270" ht="212.1" customHeight="1" spans="1:19">
       <c r="A1270" s="36" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B1270" s="26" t="s">
         <v>50</v>
@@ -34182,13 +34150,13 @@
         <v>107</v>
       </c>
       <c r="D1270" s="26" t="s">
+        <v>882</v>
+      </c>
+      <c r="E1270" s="26" t="s">
         <v>883</v>
       </c>
-      <c r="E1270" s="26" t="s">
-        <v>884</v>
-      </c>
       <c r="F1270" s="27" t="s">
-        <v>885</v>
+        <v>769</v>
       </c>
       <c r="G1270" s="26" t="s">
         <v>494</v>
@@ -34202,10 +34170,10 @@
       <c r="J1270" s="26"/>
       <c r="K1270" s="26"/>
       <c r="L1270" s="26" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="M1270" s="26" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="N1270" s="32"/>
       <c r="O1270" s="32"/>
@@ -34215,7 +34183,7 @@
     </row>
     <row r="1271" ht="46.8" spans="1:19">
       <c r="A1271" s="36" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B1271" s="26" t="s">
         <v>50</v>
@@ -34224,16 +34192,16 @@
         <v>107</v>
       </c>
       <c r="D1271" s="26" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E1271" s="26" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F1271" s="27" t="s">
         <v>769</v>
       </c>
       <c r="G1271" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1271" s="26" t="s">
         <v>45</v>
@@ -34244,10 +34212,10 @@
       <c r="J1271" s="26"/>
       <c r="K1271" s="26"/>
       <c r="L1271" s="26" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="M1271" s="26" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="N1271" s="32"/>
       <c r="O1271" s="32"/>
@@ -34257,7 +34225,7 @@
     </row>
     <row r="1272" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1272" s="36" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B1272" s="25" t="s">
         <v>50</v>
@@ -34266,10 +34234,10 @@
         <v>127</v>
       </c>
       <c r="D1272" s="25" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E1272" s="25" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F1272" s="38" t="s">
         <v>717</v>
@@ -34286,10 +34254,10 @@
       <c r="J1272" s="26"/>
       <c r="K1272" s="26"/>
       <c r="L1272" s="25" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="M1272" s="25" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="N1272" s="32"/>
       <c r="O1272" s="32"/>
@@ -34399,7 +34367,7 @@
     </row>
     <row r="1278" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1278" s="36" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B1278" s="25" t="s">
         <v>50</v>
@@ -34408,13 +34376,13 @@
         <v>107</v>
       </c>
       <c r="D1278" s="25" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E1278" s="25" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F1278" s="38" t="s">
-        <v>900</v>
+        <v>547</v>
       </c>
       <c r="G1278" s="25" t="s">
         <v>494</v>
@@ -34428,10 +34396,10 @@
       <c r="J1278" s="26"/>
       <c r="K1278" s="26"/>
       <c r="L1278" s="25" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="M1278" s="25" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="N1278" s="32"/>
       <c r="O1278" s="32"/>
@@ -34541,7 +34509,7 @@
     </row>
     <row r="1284" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1284" s="36" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B1284" s="25" t="s">
         <v>50</v>
@@ -34550,10 +34518,10 @@
         <v>40</v>
       </c>
       <c r="D1284" s="25" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E1284" s="25" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F1284" s="38" t="s">
         <v>564</v>
@@ -34570,10 +34538,10 @@
       <c r="J1284" s="26"/>
       <c r="K1284" s="26"/>
       <c r="L1284" s="25" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="M1284" s="25" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="N1284" s="32"/>
       <c r="O1284" s="32"/>
@@ -34703,22 +34671,22 @@
     </row>
     <row r="1291" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1291" s="36" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B1291" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C1291" s="37" t="s">
+        <v>906</v>
+      </c>
+      <c r="D1291" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1291" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="F1291" s="38" t="s">
         <v>909</v>
-      </c>
-      <c r="D1291" s="25" t="s">
-        <v>910</v>
-      </c>
-      <c r="E1291" s="25" t="s">
-        <v>911</v>
-      </c>
-      <c r="F1291" s="38" t="s">
-        <v>912</v>
       </c>
       <c r="G1291" s="25" t="s">
         <v>494</v>
@@ -34732,10 +34700,10 @@
       <c r="J1291" s="26"/>
       <c r="K1291" s="26"/>
       <c r="L1291" s="25" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="M1291" s="25" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="N1291" s="32"/>
       <c r="O1291" s="32"/>
@@ -35185,7 +35153,7 @@
     </row>
     <row r="1314" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1314" s="36" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B1314" s="25" t="s">
         <v>50</v>
@@ -35194,13 +35162,13 @@
         <v>345</v>
       </c>
       <c r="D1314" s="25" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E1314" s="25" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F1314" s="38" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G1314" s="25" t="s">
         <v>494</v>
@@ -35214,10 +35182,10 @@
       <c r="J1314" s="26"/>
       <c r="K1314" s="26"/>
       <c r="L1314" s="25" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="M1314" s="25" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="N1314" s="32"/>
       <c r="O1314" s="32"/>
@@ -35547,7 +35515,7 @@
     </row>
     <row r="1331" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1331" s="36" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B1331" s="25" t="s">
         <v>50</v>
@@ -35556,13 +35524,13 @@
         <v>99</v>
       </c>
       <c r="D1331" s="25" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E1331" s="25" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F1331" s="38" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G1331" s="25" t="s">
         <v>494</v>
@@ -35576,10 +35544,10 @@
       <c r="J1331" s="26"/>
       <c r="K1331" s="26"/>
       <c r="L1331" s="25" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="M1331" s="25" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="N1331" s="32"/>
       <c r="O1331" s="32"/>
@@ -35849,7 +35817,7 @@
     </row>
     <row r="1345" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1345" s="36" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B1345" s="25" t="s">
         <v>50</v>
@@ -35858,13 +35826,13 @@
         <v>40</v>
       </c>
       <c r="D1345" s="25" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E1345" s="25" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F1345" s="38" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G1345" s="25" t="s">
         <v>494</v>
@@ -35878,10 +35846,10 @@
       <c r="J1345" s="26"/>
       <c r="K1345" s="26"/>
       <c r="L1345" s="25" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="M1345" s="25" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="N1345" s="32"/>
       <c r="O1345" s="32"/>
@@ -36011,7 +35979,7 @@
     </row>
     <row r="1352" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1352" s="36" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B1352" s="25" t="s">
         <v>50</v>
@@ -36020,13 +35988,13 @@
         <v>127</v>
       </c>
       <c r="D1352" s="25" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E1352" s="25" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F1352" s="38" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G1352" s="25" t="s">
         <v>494</v>
@@ -36040,10 +36008,10 @@
       <c r="J1352" s="26"/>
       <c r="K1352" s="26"/>
       <c r="L1352" s="25" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="M1352" s="25" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="N1352" s="32"/>
       <c r="O1352" s="32"/>
@@ -36213,7 +36181,7 @@
     </row>
     <row r="1361" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1361" s="36" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B1361" s="25" t="s">
         <v>50</v>
@@ -36222,13 +36190,13 @@
         <v>127</v>
       </c>
       <c r="D1361" s="25" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E1361" s="25" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F1361" s="38" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G1361" s="25" t="s">
         <v>494</v>
@@ -36237,15 +36205,15 @@
         <v>45</v>
       </c>
       <c r="I1361" s="25" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J1361" s="26"/>
       <c r="K1361" s="26"/>
       <c r="L1361" s="25" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="M1361" s="25" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="N1361" s="32"/>
       <c r="O1361" s="32"/>
@@ -36435,7 +36403,7 @@
     </row>
     <row r="1371" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1371" s="36" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B1371" s="25" t="s">
         <v>50</v>
@@ -36444,10 +36412,10 @@
         <v>58</v>
       </c>
       <c r="D1371" s="25" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E1371" s="25" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F1371" s="38" t="s">
         <v>692</v>
@@ -36464,10 +36432,10 @@
       <c r="J1371" s="26"/>
       <c r="K1371" s="26"/>
       <c r="L1371" s="25" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="M1371" s="25" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="N1371" s="32"/>
       <c r="O1371" s="32"/>
@@ -36677,7 +36645,7 @@
     </row>
     <row r="1382" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1382" s="36" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B1382" s="25" t="s">
         <v>50</v>
@@ -36686,10 +36654,10 @@
         <v>58</v>
       </c>
       <c r="D1382" s="25" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E1382" s="25" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F1382" s="38" t="s">
         <v>553</v>
@@ -36706,10 +36674,10 @@
       <c r="J1382" s="26"/>
       <c r="K1382" s="26"/>
       <c r="L1382" s="25" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="M1382" s="25" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="N1382" s="32"/>
       <c r="O1382" s="32"/>
@@ -37359,7 +37327,7 @@
     </row>
     <row r="1415" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1415" s="36" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B1415" s="25" t="s">
         <v>50</v>
@@ -37368,16 +37336,16 @@
         <v>58</v>
       </c>
       <c r="D1415" s="25" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E1415" s="25" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F1415" s="38" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G1415" s="41" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1415" s="25" t="s">
         <v>45</v>
@@ -37388,10 +37356,10 @@
       <c r="J1415" s="26"/>
       <c r="K1415" s="26"/>
       <c r="L1415" s="25" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="M1415" s="25" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="N1415" s="32"/>
       <c r="O1415" s="32"/>
@@ -37821,7 +37789,7 @@
     </row>
     <row r="1437" ht="46.8" spans="1:19">
       <c r="A1437" s="36" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B1437" s="26" t="s">
         <v>50</v>
@@ -37830,10 +37798,10 @@
         <v>107</v>
       </c>
       <c r="D1437" s="26" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E1437" s="26" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F1437" s="27" t="s">
         <v>769</v>
@@ -37850,10 +37818,10 @@
       <c r="J1437" s="26"/>
       <c r="K1437" s="26"/>
       <c r="L1437" s="26" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="M1437" s="26" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="N1437" s="32"/>
       <c r="O1437" s="32"/>
@@ -37863,7 +37831,7 @@
     </row>
     <row r="1438" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1438" s="36" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B1438" s="25" t="s">
         <v>50</v>
@@ -37872,13 +37840,13 @@
         <v>87</v>
       </c>
       <c r="D1438" s="25" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E1438" s="25" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F1438" s="38" t="s">
-        <v>970</v>
+        <v>503</v>
       </c>
       <c r="G1438" s="25" t="s">
         <v>494</v>
@@ -37892,10 +37860,10 @@
       <c r="J1438" s="26"/>
       <c r="K1438" s="26"/>
       <c r="L1438" s="25" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="M1438" s="25" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="N1438" s="32"/>
       <c r="O1438" s="32"/>
@@ -38285,7 +38253,7 @@
     </row>
     <row r="1458" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1458" s="36" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B1458" s="25" t="s">
         <v>50</v>
@@ -38294,16 +38262,16 @@
         <v>40</v>
       </c>
       <c r="D1458" s="25" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="E1458" s="25" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F1458" s="38" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="G1458" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1458" s="25" t="s">
         <v>45</v>
@@ -38314,10 +38282,10 @@
       <c r="J1458" s="26"/>
       <c r="K1458" s="26"/>
       <c r="L1458" s="25" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="M1458" s="25" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="N1458" s="32"/>
       <c r="O1458" s="32"/>
@@ -38407,7 +38375,7 @@
     </row>
     <row r="1463" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1463" s="36" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B1463" s="25" t="s">
         <v>50</v>
@@ -38416,16 +38384,16 @@
         <v>70</v>
       </c>
       <c r="D1463" s="25" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E1463" s="25" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F1463" s="38" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G1463" s="25" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="H1463" s="25" t="s">
         <v>45</v>
@@ -38436,10 +38404,10 @@
       <c r="J1463" s="26"/>
       <c r="K1463" s="26"/>
       <c r="L1463" s="25" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="M1463" s="25" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="N1463" s="32"/>
       <c r="O1463" s="32"/>
@@ -38509,7 +38477,7 @@
     </row>
     <row r="1467" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1467" s="36" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B1467" s="25" t="s">
         <v>50</v>
@@ -38518,13 +38486,13 @@
         <v>127</v>
       </c>
       <c r="D1467" s="25" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E1467" s="25" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F1467" s="38" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="G1467" s="25" t="s">
         <v>494</v>
@@ -38538,10 +38506,10 @@
       <c r="J1467" s="26"/>
       <c r="K1467" s="26"/>
       <c r="L1467" s="25" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="M1467" s="25" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="N1467" s="32"/>
       <c r="O1467" s="32"/>
@@ -38631,7 +38599,7 @@
     </row>
     <row r="1472" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1472" s="36" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B1472" s="25" t="s">
         <v>50</v>
@@ -38640,10 +38608,10 @@
         <v>40</v>
       </c>
       <c r="D1472" s="25" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E1472" s="25" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F1472" s="38" t="s">
         <v>575</v>
@@ -38660,10 +38628,10 @@
       <c r="J1472" s="26"/>
       <c r="K1472" s="26"/>
       <c r="L1472" s="25" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="M1472" s="25" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="N1472" s="32"/>
       <c r="O1472" s="32"/>
@@ -38773,7 +38741,7 @@
     </row>
     <row r="1478" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1478" s="36" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B1478" s="25" t="s">
         <v>50</v>
@@ -38782,16 +38750,16 @@
         <v>87</v>
       </c>
       <c r="D1478" s="25" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E1478" s="25" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F1478" s="38" t="s">
         <v>493</v>
       </c>
       <c r="G1478" s="25" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="H1478" s="25" t="s">
         <v>45</v>
@@ -38802,10 +38770,10 @@
       <c r="J1478" s="26"/>
       <c r="K1478" s="26"/>
       <c r="L1478" s="25" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="M1478" s="25" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="N1478" s="32"/>
       <c r="O1478" s="32"/>
@@ -39295,7 +39263,7 @@
     </row>
     <row r="1503" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1503" s="36" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B1503" s="25" t="s">
         <v>50</v>
@@ -39304,13 +39272,13 @@
         <v>127</v>
       </c>
       <c r="D1503" s="25" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E1503" s="25" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="F1503" s="38" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="G1503" s="25" t="s">
         <v>494</v>
@@ -39324,10 +39292,10 @@
       <c r="J1503" s="26"/>
       <c r="K1503" s="26"/>
       <c r="L1503" s="25" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="M1503" s="25" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="N1503" s="32"/>
       <c r="O1503" s="32"/>
@@ -39637,7 +39605,7 @@
     </row>
     <row r="1519" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1519" s="36" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B1519" s="25" t="s">
         <v>50</v>
@@ -39646,13 +39614,13 @@
         <v>127</v>
       </c>
       <c r="D1519" s="25" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E1519" s="25" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F1519" s="38" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G1519" s="25" t="s">
         <v>494</v>
@@ -39666,10 +39634,10 @@
       <c r="J1519" s="26"/>
       <c r="K1519" s="26"/>
       <c r="L1519" s="25" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="M1519" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="N1519" s="32"/>
       <c r="O1519" s="32"/>
@@ -39859,7 +39827,7 @@
     </row>
     <row r="1529" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1529" s="36" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B1529" s="25" t="s">
         <v>50</v>
@@ -39868,13 +39836,13 @@
         <v>70</v>
       </c>
       <c r="D1529" s="25" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E1529" s="25" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F1529" s="38" t="s">
-        <v>1015</v>
+        <v>564</v>
       </c>
       <c r="G1529" s="25" t="s">
         <v>494</v>
@@ -39888,10 +39856,10 @@
       <c r="J1529" s="26"/>
       <c r="K1529" s="26"/>
       <c r="L1529" s="25" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="M1529" s="25" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="N1529" s="32"/>
       <c r="O1529" s="32"/>
@@ -40001,22 +39969,22 @@
     </row>
     <row r="1535" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1535" s="36" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B1535" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C1535" s="37" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D1535" s="25" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E1535" s="25" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F1535" s="38" t="s">
-        <v>1022</v>
+        <v>581</v>
       </c>
       <c r="G1535" s="25" t="s">
         <v>494</v>
@@ -40030,10 +39998,10 @@
       <c r="J1535" s="26"/>
       <c r="K1535" s="26"/>
       <c r="L1535" s="25" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="M1535" s="25" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="N1535" s="32"/>
       <c r="O1535" s="32"/>
@@ -40163,22 +40131,22 @@
     </row>
     <row r="1542" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1542" s="36" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B1542" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C1542" s="37" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D1542" s="25" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="E1542" s="25" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="F1542" s="38" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="G1542" s="25" t="s">
         <v>494</v>
@@ -40192,10 +40160,10 @@
       <c r="J1542" s="26"/>
       <c r="K1542" s="26"/>
       <c r="L1542" s="25" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="M1542" s="25" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="N1542" s="32"/>
       <c r="O1542" s="32"/>
@@ -40225,7 +40193,7 @@
     </row>
     <row r="1544" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1544" s="36" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="B1544" s="25" t="s">
         <v>50</v>
@@ -40234,10 +40202,10 @@
         <v>70</v>
       </c>
       <c r="D1544" s="25" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E1544" s="25" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F1544" s="38" t="s">
         <v>692</v>
@@ -40254,10 +40222,10 @@
       <c r="J1544" s="26"/>
       <c r="K1544" s="26"/>
       <c r="L1544" s="25" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="M1544" s="25" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="N1544" s="32"/>
       <c r="O1544" s="32"/>
@@ -40727,22 +40695,22 @@
     </row>
     <row r="1568" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1568" s="36" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="B1568" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C1568" s="37" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D1568" s="25" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="E1568" s="25" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F1568" s="38" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="G1568" s="25" t="s">
         <v>494</v>
@@ -40756,10 +40724,10 @@
       <c r="J1568" s="26"/>
       <c r="K1568" s="26"/>
       <c r="L1568" s="25" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="M1568" s="25" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="N1568" s="32"/>
       <c r="O1568" s="32"/>
@@ -40849,7 +40817,7 @@
     </row>
     <row r="1573" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1573" s="36" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="B1573" s="25" t="s">
         <v>50</v>
@@ -40858,13 +40826,13 @@
         <v>127</v>
       </c>
       <c r="D1573" s="25" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="E1573" s="25" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F1573" s="38" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="G1573" s="25" t="s">
         <v>494</v>
@@ -40878,10 +40846,10 @@
       <c r="J1573" s="26"/>
       <c r="K1573" s="26"/>
       <c r="L1573" s="25" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="M1573" s="25" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="N1573" s="32"/>
       <c r="O1573" s="32"/>
@@ -40971,7 +40939,7 @@
     </row>
     <row r="1578" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1578" s="36" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B1578" s="25" t="s">
         <v>50</v>
@@ -40980,10 +40948,10 @@
         <v>127</v>
       </c>
       <c r="D1578" s="25" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E1578" s="25" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="F1578" s="38" t="s">
         <v>758</v>
@@ -41000,10 +40968,10 @@
       <c r="J1578" s="26"/>
       <c r="K1578" s="26"/>
       <c r="L1578" s="25" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="M1578" s="25" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="N1578" s="32"/>
       <c r="O1578" s="32"/>
@@ -41093,7 +41061,7 @@
     </row>
     <row r="1583" ht="21" spans="1:19">
       <c r="A1583" s="36" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="B1583" s="25" t="s">
         <v>50</v>
@@ -41102,13 +41070,13 @@
         <v>345</v>
       </c>
       <c r="D1583" s="25" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="E1583" s="25" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="F1583" s="38" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="G1583" s="25" t="s">
         <v>494</v>
@@ -41122,10 +41090,10 @@
       <c r="J1583" s="26"/>
       <c r="K1583" s="26"/>
       <c r="L1583" s="25" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="M1583" s="25" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="N1583" s="32"/>
       <c r="O1583" s="32"/>
@@ -43195,22 +43163,22 @@
     </row>
     <row r="1687" ht="13.5" customHeight="1" spans="1:19">
       <c r="A1687" s="36" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B1687" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C1687" s="37" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D1687" s="25" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="E1687" s="25" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="F1687" s="38" t="s">
-        <v>1063</v>
+        <v>517</v>
       </c>
       <c r="G1687" s="25" t="s">
         <v>494</v>
@@ -43224,10 +43192,10 @@
       <c r="J1687" s="26"/>
       <c r="K1687" s="26"/>
       <c r="L1687" s="25" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="M1687" s="25" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="N1687" s="32"/>
       <c r="O1687" s="32"/>
@@ -43577,7 +43545,7 @@
     </row>
     <row r="1705" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1705" s="36" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="B1705" s="25" t="s">
         <v>50</v>
@@ -43586,13 +43554,13 @@
         <v>127</v>
       </c>
       <c r="D1705" s="25" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="E1705" s="25" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="F1705" s="38" t="s">
-        <v>1069</v>
+        <v>927</v>
       </c>
       <c r="G1705" s="25" t="s">
         <v>494</v>
@@ -43606,10 +43574,10 @@
       <c r="J1705" s="26"/>
       <c r="K1705" s="26"/>
       <c r="L1705" s="25" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="M1705" s="25" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="N1705" s="32"/>
       <c r="O1705" s="32"/>
@@ -43639,7 +43607,7 @@
     </row>
     <row r="1707" ht="46.8" spans="1:19">
       <c r="A1707" s="36" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B1707" s="26" t="s">
         <v>50</v>
@@ -43648,10 +43616,10 @@
         <v>127</v>
       </c>
       <c r="D1707" s="26" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="E1707" s="26" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="F1707" s="27" t="s">
         <v>769</v>
@@ -43668,10 +43636,10 @@
       <c r="J1707" s="26"/>
       <c r="K1707" s="26"/>
       <c r="L1707" s="26" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="M1707" s="26" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="N1707" s="32"/>
       <c r="O1707" s="32"/>
@@ -43681,7 +43649,7 @@
     </row>
     <row r="1708" ht="13.5" customHeight="1" spans="1:19">
       <c r="A1708" s="36" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="B1708" s="25" t="s">
         <v>50</v>
@@ -43690,10 +43658,10 @@
         <v>99</v>
       </c>
       <c r="D1708" s="25" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="E1708" s="25" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="F1708" s="38" t="s">
         <v>510</v>
@@ -43710,10 +43678,10 @@
       <c r="J1708" s="26"/>
       <c r="K1708" s="26"/>
       <c r="L1708" s="25" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="M1708" s="25" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="N1708" s="32"/>
       <c r="O1708" s="32"/>
@@ -44203,7 +44171,7 @@
     </row>
     <row r="1733" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1733" s="36" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="B1733" s="25" t="s">
         <v>50</v>
@@ -44212,13 +44180,13 @@
         <v>40</v>
       </c>
       <c r="D1733" s="25" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="E1733" s="25" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="F1733" s="38" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="G1733" s="25" t="s">
         <v>494</v>
@@ -44232,10 +44200,10 @@
       <c r="J1733" s="26"/>
       <c r="K1733" s="26"/>
       <c r="L1733" s="25" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="M1733" s="25" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="N1733" s="32"/>
       <c r="O1733" s="32"/>
@@ -44345,7 +44313,7 @@
     </row>
     <row r="1739" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1739" s="36" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="B1739" s="25" t="s">
         <v>50</v>
@@ -44354,13 +44322,13 @@
         <v>93</v>
       </c>
       <c r="D1739" s="25" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="E1739" s="25" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="F1739" s="38" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="G1739" s="25" t="s">
         <v>494</v>
@@ -44374,10 +44342,10 @@
       <c r="J1739" s="26"/>
       <c r="K1739" s="26"/>
       <c r="L1739" s="25" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="M1739" s="25" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="N1739" s="32"/>
       <c r="O1739" s="32"/>
@@ -44507,7 +44475,7 @@
     </row>
     <row r="1746" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1746" s="36" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="B1746" s="25" t="s">
         <v>50</v>
@@ -44516,13 +44484,13 @@
         <v>40</v>
       </c>
       <c r="D1746" s="25" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="E1746" s="25" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="F1746" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G1746" s="25" t="s">
         <v>494</v>
@@ -44536,10 +44504,10 @@
       <c r="J1746" s="26"/>
       <c r="K1746" s="26"/>
       <c r="L1746" s="25" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="M1746" s="25" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="N1746" s="32"/>
       <c r="O1746" s="32"/>
@@ -44709,7 +44677,7 @@
     </row>
     <row r="1755" ht="46.8" spans="1:19">
       <c r="A1755" s="36" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="B1755" s="26" t="s">
         <v>50</v>
@@ -44718,10 +44686,10 @@
         <v>40</v>
       </c>
       <c r="D1755" s="26" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="E1755" s="26" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="F1755" s="27" t="s">
         <v>524</v>
@@ -44738,10 +44706,10 @@
       <c r="J1755" s="26"/>
       <c r="K1755" s="26"/>
       <c r="L1755" s="26" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="M1755" s="26" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="N1755" s="32"/>
       <c r="O1755" s="32"/>
@@ -44751,7 +44719,7 @@
     </row>
     <row r="1756" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1756" s="36" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="B1756" s="25" t="s">
         <v>50</v>
@@ -44760,10 +44728,10 @@
         <v>127</v>
       </c>
       <c r="D1756" s="25" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="E1756" s="25" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F1756" s="38" t="s">
         <v>530</v>
@@ -44780,10 +44748,10 @@
       <c r="J1756" s="26"/>
       <c r="K1756" s="26"/>
       <c r="L1756" s="25" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="M1756" s="25" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="N1756" s="32"/>
       <c r="O1756" s="32"/>
@@ -44853,7 +44821,7 @@
     </row>
     <row r="1760" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1760" s="36" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="B1760" s="25" t="s">
         <v>50</v>
@@ -44862,13 +44830,13 @@
         <v>58</v>
       </c>
       <c r="D1760" s="25" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E1760" s="25" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="F1760" s="38" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G1760" s="25" t="s">
         <v>494</v>
@@ -44882,10 +44850,10 @@
       <c r="J1760" s="26"/>
       <c r="K1760" s="26"/>
       <c r="L1760" s="25" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="M1760" s="25" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="N1760" s="32"/>
       <c r="O1760" s="32"/>
@@ -45335,7 +45303,7 @@
     </row>
     <row r="1783" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1783" s="36" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="B1783" s="25" t="s">
         <v>50</v>
@@ -45344,10 +45312,10 @@
         <v>93</v>
       </c>
       <c r="D1783" s="25" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="E1783" s="25" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="F1783" s="38" t="s">
         <v>559</v>
@@ -45364,10 +45332,10 @@
       <c r="J1783" s="26"/>
       <c r="K1783" s="26"/>
       <c r="L1783" s="25" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="M1783" s="25" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="N1783" s="32"/>
       <c r="O1783" s="32"/>
@@ -45477,7 +45445,7 @@
     </row>
     <row r="1789" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1789" s="36" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="B1789" s="25" t="s">
         <v>50</v>
@@ -45486,10 +45454,10 @@
         <v>127</v>
       </c>
       <c r="D1789" s="25" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="E1789" s="25" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="F1789" s="38" t="s">
         <v>594</v>
@@ -45506,10 +45474,10 @@
       <c r="J1789" s="26"/>
       <c r="K1789" s="26"/>
       <c r="L1789" s="25" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="M1789" s="25" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="N1789" s="32"/>
       <c r="O1789" s="32"/>
@@ -45979,7 +45947,7 @@
     </row>
     <row r="1813" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1813" s="36" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="B1813" s="25" t="s">
         <v>50</v>
@@ -45988,10 +45956,10 @@
         <v>58</v>
       </c>
       <c r="D1813" s="25" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="E1813" s="25" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="F1813" s="38" t="s">
         <v>553</v>
@@ -46008,10 +45976,10 @@
       <c r="J1813" s="26"/>
       <c r="K1813" s="26"/>
       <c r="L1813" s="25" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="M1813" s="25" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="N1813" s="32"/>
       <c r="O1813" s="32"/>
@@ -46681,7 +46649,7 @@
     </row>
     <row r="1847" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1847" s="36" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="B1847" s="25" t="s">
         <v>50</v>
@@ -46690,10 +46658,10 @@
         <v>127</v>
       </c>
       <c r="D1847" s="25" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="E1847" s="25" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="F1847" s="38" t="s">
         <v>547</v>
@@ -46710,10 +46678,10 @@
       <c r="J1847" s="26"/>
       <c r="K1847" s="26"/>
       <c r="L1847" s="25" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="M1847" s="25" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="N1847" s="32"/>
       <c r="O1847" s="32"/>
@@ -46863,7 +46831,7 @@
     </row>
     <row r="1855" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1855" s="36" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="B1855" s="25" t="s">
         <v>50</v>
@@ -46872,10 +46840,10 @@
         <v>127</v>
       </c>
       <c r="D1855" s="25" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="E1855" s="25" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="F1855" s="38" t="s">
         <v>524</v>
@@ -46892,10 +46860,10 @@
       <c r="J1855" s="26"/>
       <c r="K1855" s="26"/>
       <c r="L1855" s="25" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="M1855" s="25" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="N1855" s="32"/>
       <c r="O1855" s="32"/>
@@ -46985,7 +46953,7 @@
     </row>
     <row r="1860" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1860" s="36" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="B1860" s="25" t="s">
         <v>50</v>
@@ -46994,13 +46962,13 @@
         <v>93</v>
       </c>
       <c r="D1860" s="25" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="E1860" s="25" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="F1860" s="38" t="s">
-        <v>1141</v>
+        <v>553</v>
       </c>
       <c r="G1860" s="25" t="s">
         <v>494</v>
@@ -47014,10 +46982,10 @@
       <c r="J1860" s="26"/>
       <c r="K1860" s="26"/>
       <c r="L1860" s="25" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="M1860" s="25" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="N1860" s="32"/>
       <c r="O1860" s="32"/>
@@ -47327,7 +47295,7 @@
     </row>
     <row r="1876" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1876" s="36" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="B1876" s="25" t="s">
         <v>50</v>
@@ -47339,10 +47307,10 @@
         <v>115</v>
       </c>
       <c r="E1876" s="25" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="F1876" s="38" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="G1876" s="25" t="s">
         <v>494</v>
@@ -47356,10 +47324,10 @@
       <c r="J1876" s="26"/>
       <c r="K1876" s="26"/>
       <c r="L1876" s="25" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="M1876" s="25" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="N1876" s="32"/>
       <c r="O1876" s="32"/>
@@ -47509,7 +47477,7 @@
     </row>
     <row r="1884" ht="47.25" customHeight="1" spans="1:19">
       <c r="A1884" s="36" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="B1884" s="26" t="s">
         <v>50</v>
@@ -47518,13 +47486,13 @@
         <v>127</v>
       </c>
       <c r="D1884" s="26" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="E1884" s="26" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="F1884" s="27" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="G1884" s="26" t="s">
         <v>494</v>
@@ -47538,10 +47506,10 @@
       <c r="J1884" s="26"/>
       <c r="K1884" s="26"/>
       <c r="L1884" s="26" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="M1884" s="26" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="N1884" s="32"/>
       <c r="O1884" s="32"/>
@@ -47571,7 +47539,7 @@
     </row>
     <row r="1886" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1886" s="36" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="B1886" s="25" t="s">
         <v>50</v>
@@ -47583,10 +47551,10 @@
         <v>747</v>
       </c>
       <c r="E1886" s="25" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="F1886" s="38" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="G1886" s="25" t="s">
         <v>494</v>
@@ -47600,10 +47568,10 @@
       <c r="J1886" s="26"/>
       <c r="K1886" s="26"/>
       <c r="L1886" s="25" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="M1886" s="25" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="N1886" s="32"/>
       <c r="O1886" s="32"/>
@@ -47793,7 +47761,7 @@
     </row>
     <row r="1896" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1896" s="36" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="B1896" s="25" t="s">
         <v>50</v>
@@ -47802,13 +47770,13 @@
         <v>99</v>
       </c>
       <c r="D1896" s="25" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="E1896" s="25" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="F1896" s="38" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="G1896" s="25" t="s">
         <v>494</v>
@@ -47822,10 +47790,10 @@
       <c r="J1896" s="26"/>
       <c r="K1896" s="26"/>
       <c r="L1896" s="25" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="M1896" s="25" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="N1896" s="32"/>
       <c r="O1896" s="32"/>
@@ -48335,7 +48303,7 @@
     </row>
     <row r="1922" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1922" s="36" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="B1922" s="25" t="s">
         <v>50</v>
@@ -48344,10 +48312,10 @@
         <v>99</v>
       </c>
       <c r="D1922" s="25" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="E1922" s="25" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="F1922" s="38" t="s">
         <v>692</v>
@@ -48364,10 +48332,10 @@
       <c r="J1922" s="26"/>
       <c r="K1922" s="26"/>
       <c r="L1922" s="25" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="M1922" s="25" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="N1922" s="32"/>
       <c r="O1922" s="32"/>
@@ -48797,7 +48765,7 @@
     </row>
     <row r="1944" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1944" s="36" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="B1944" s="25" t="s">
         <v>50</v>
@@ -48806,13 +48774,13 @@
         <v>99</v>
       </c>
       <c r="D1944" s="25" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="E1944" s="25" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="F1944" s="38" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="G1944" s="25" t="s">
         <v>494</v>
@@ -48826,10 +48794,10 @@
       <c r="J1944" s="26"/>
       <c r="K1944" s="26"/>
       <c r="L1944" s="25" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="M1944" s="25" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="N1944" s="32"/>
       <c r="O1944" s="32"/>
@@ -49219,7 +49187,7 @@
     </row>
     <row r="1964" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1964" s="36" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="B1964" s="25" t="s">
         <v>50</v>
@@ -49228,10 +49196,10 @@
         <v>93</v>
       </c>
       <c r="D1964" s="25" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="E1964" s="25" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="F1964" s="38" t="s">
         <v>541</v>
@@ -49248,10 +49216,10 @@
       <c r="J1964" s="26"/>
       <c r="K1964" s="26"/>
       <c r="L1964" s="25" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="M1964" s="25" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="N1964" s="32"/>
       <c r="O1964" s="32"/>
@@ -49441,7 +49409,7 @@
     </row>
     <row r="1974" ht="62.4" spans="1:19">
       <c r="A1974" s="36" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="B1974" s="26" t="s">
         <v>39</v>
@@ -49450,10 +49418,10 @@
         <v>127</v>
       </c>
       <c r="D1974" s="26" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="E1974" s="26" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="F1974" s="27" t="s">
         <v>769</v>
@@ -49470,10 +49438,10 @@
       <c r="J1974" s="26"/>
       <c r="K1974" s="26"/>
       <c r="L1974" s="26" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="M1974" s="26" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="N1974" s="32"/>
       <c r="O1974" s="32"/>
@@ -49483,19 +49451,19 @@
     </row>
     <row r="1975" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1975" s="36" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="B1975" s="25" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="C1975" s="37" t="s">
         <v>127</v>
       </c>
       <c r="D1975" s="25" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="E1975" s="25" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="F1975" s="38" t="s">
         <v>594</v>
@@ -49512,10 +49480,10 @@
       <c r="J1975" s="26"/>
       <c r="K1975" s="26"/>
       <c r="L1975" s="25" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="M1975" s="25" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="N1975" s="32"/>
       <c r="O1975" s="32"/>
@@ -49585,19 +49553,19 @@
     </row>
     <row r="1979" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1979" s="36" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="B1979" s="25" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="C1979" s="37" t="s">
         <v>107</v>
       </c>
       <c r="D1979" s="25" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="E1979" s="25" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="F1979" s="38" t="s">
         <v>594</v>
@@ -49614,10 +49582,10 @@
       <c r="J1979" s="26"/>
       <c r="K1979" s="26"/>
       <c r="L1979" s="25" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="M1979" s="25" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="N1979" s="32"/>
       <c r="O1979" s="32"/>
@@ -49827,39 +49795,39 @@
     </row>
     <row r="1990" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1990" s="36" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="B1990" s="25" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="C1990" s="37" t="s">
         <v>107</v>
       </c>
       <c r="D1990" s="25" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="E1990" s="25" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="F1990" s="38" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="G1990" s="25" t="s">
         <v>494</v>
       </c>
       <c r="H1990" s="25" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="I1990" s="25" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J1990" s="26"/>
       <c r="K1990" s="26"/>
       <c r="L1990" s="25" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="M1990" s="25" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="N1990" s="32"/>
       <c r="O1990" s="32"/>
@@ -49969,19 +49937,19 @@
     </row>
     <row r="1996" ht="20.25" customHeight="1" spans="1:19">
       <c r="A1996" s="36" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="B1996" s="25" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="C1996" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D1996" s="25" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="E1996" s="25" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="F1996" s="38" t="s">
         <v>686</v>
@@ -49990,7 +49958,7 @@
         <v>494</v>
       </c>
       <c r="H1996" s="25" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="I1996" s="25" t="s">
         <v>149</v>
@@ -49998,10 +49966,10 @@
       <c r="J1996" s="26"/>
       <c r="K1996" s="26"/>
       <c r="L1996" s="25" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="M1996" s="25" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="N1996" s="32"/>
       <c r="O1996" s="32"/>
@@ -50171,22 +50139,22 @@
     </row>
     <row r="2005" ht="20.25" customHeight="1" spans="1:19">
       <c r="A2005" s="36" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="B2005" s="25" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="C2005" s="37" t="s">
         <v>127</v>
       </c>
       <c r="D2005" s="25" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="E2005" s="25" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="F2005" s="38" t="s">
-        <v>1211</v>
+        <v>871</v>
       </c>
       <c r="G2005" s="25" t="s">
         <v>494</v>
@@ -50200,10 +50168,10 @@
       <c r="J2005" s="26"/>
       <c r="K2005" s="26"/>
       <c r="L2005" s="25" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="M2005" s="25" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="N2005" s="32"/>
       <c r="O2005" s="32"/>
@@ -50293,19 +50261,19 @@
     </row>
     <row r="2010" ht="20.25" customHeight="1" spans="1:19">
       <c r="A2010" s="36" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="B2010" s="25" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="C2010" s="37" t="s">
         <v>127</v>
       </c>
       <c r="D2010" s="25" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="E2010" s="25" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="F2010" s="38" t="s">
         <v>594</v>
@@ -50322,10 +50290,10 @@
       <c r="J2010" s="26"/>
       <c r="K2010" s="26"/>
       <c r="L2010" s="25" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="M2010" s="25" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="N2010" s="32"/>
       <c r="O2010" s="32"/>
@@ -50535,7 +50503,7 @@
     </row>
     <row r="2021" ht="109.2" spans="1:19">
       <c r="A2021" s="36" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="B2021" s="26" t="s">
         <v>404</v>
@@ -50544,7 +50512,7 @@
         <v>93</v>
       </c>
       <c r="D2021" s="26" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="E2021" s="26" t="s">
         <v>801</v>
@@ -50558,14 +50526,14 @@
       <c r="H2021" s="26"/>
       <c r="I2021" s="26"/>
       <c r="J2021" s="26" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="K2021" s="26" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="L2021" s="26"/>
       <c r="M2021" s="26" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="N2021" s="32"/>
       <c r="O2021" s="32"/>
@@ -50575,7 +50543,7 @@
     </row>
     <row r="2022" ht="171.6" spans="1:19">
       <c r="A2022" s="36" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="B2022" s="26" t="s">
         <v>404</v>
@@ -50584,13 +50552,13 @@
         <v>93</v>
       </c>
       <c r="D2022" s="26" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="E2022" s="26" t="s">
         <v>801</v>
       </c>
       <c r="F2022" s="27" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="G2022" s="26" t="s">
         <v>44</v>
@@ -50598,14 +50566,14 @@
       <c r="H2022" s="26"/>
       <c r="I2022" s="26"/>
       <c r="J2022" s="26" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="K2022" s="26" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="L2022" s="26"/>
       <c r="M2022" s="26" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="N2022" s="32"/>
       <c r="O2022" s="32"/>
@@ -50615,7 +50583,7 @@
     </row>
     <row r="2023" ht="124.8" spans="1:19">
       <c r="A2023" s="36" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="B2023" s="26" t="s">
         <v>404</v>
@@ -50624,13 +50592,13 @@
         <v>93</v>
       </c>
       <c r="D2023" s="26" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="E2023" s="26" t="s">
         <v>801</v>
       </c>
       <c r="F2023" s="27" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="G2023" s="26" t="s">
         <v>44</v>
@@ -50638,14 +50606,14 @@
       <c r="H2023" s="26"/>
       <c r="I2023" s="26"/>
       <c r="J2023" s="26" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="K2023" s="26" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="L2023" s="26"/>
       <c r="M2023" s="26" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="N2023" s="32"/>
       <c r="O2023" s="32"/>
@@ -50655,7 +50623,7 @@
     </row>
     <row r="2024" ht="109.2" spans="1:19">
       <c r="A2024" s="36" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B2024" s="26" t="s">
         <v>404</v>
@@ -50664,13 +50632,13 @@
         <v>93</v>
       </c>
       <c r="D2024" s="26" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="E2024" s="26" t="s">
         <v>801</v>
       </c>
       <c r="F2024" s="27" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="G2024" s="26" t="s">
         <v>44</v>
@@ -50678,14 +50646,14 @@
       <c r="H2024" s="26"/>
       <c r="I2024" s="26"/>
       <c r="J2024" s="26" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="K2024" s="26" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="L2024" s="26"/>
       <c r="M2024" s="26" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="N2024" s="32"/>
       <c r="O2024" s="32"/>
@@ -50695,7 +50663,7 @@
     </row>
     <row r="2025" ht="93.6" spans="1:19">
       <c r="A2025" s="36" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="B2025" s="26" t="s">
         <v>404</v>
@@ -50704,13 +50672,13 @@
         <v>93</v>
       </c>
       <c r="D2025" s="26" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="E2025" s="26" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="F2025" s="27" t="s">
-        <v>1243</v>
+        <v>474</v>
       </c>
       <c r="G2025" s="26" t="s">
         <v>44</v>
@@ -50718,14 +50686,14 @@
       <c r="H2025" s="26"/>
       <c r="I2025" s="26"/>
       <c r="J2025" s="26" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
       <c r="K2025" s="26" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="L2025" s="26"/>
       <c r="M2025" s="26" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="N2025" s="32"/>
       <c r="O2025" s="32"/>
@@ -50735,7 +50703,7 @@
     </row>
     <row r="2026" ht="78" spans="1:19">
       <c r="A2026" s="36" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
       <c r="B2026" s="26" t="s">
         <v>404</v>
@@ -50744,10 +50712,10 @@
         <v>70</v>
       </c>
       <c r="D2026" s="26" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
       <c r="E2026" s="26" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="F2026" s="27" t="s">
         <v>155</v>
@@ -50758,14 +50726,14 @@
       <c r="H2026" s="26"/>
       <c r="I2026" s="26"/>
       <c r="J2026" s="26" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
       <c r="K2026" s="26" t="s">
-        <v>1251</v>
+        <v>1240</v>
       </c>
       <c r="L2026" s="26"/>
       <c r="M2026" s="26" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
       <c r="N2026" s="32"/>
       <c r="O2026" s="32"/>
@@ -50775,7 +50743,7 @@
     </row>
     <row r="2027" ht="202.8" spans="1:19">
       <c r="A2027" s="36" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
       <c r="B2027" s="26" t="s">
         <v>404</v>
@@ -50784,13 +50752,13 @@
         <v>70</v>
       </c>
       <c r="D2027" s="26" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="E2027" s="26" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
       <c r="F2027" s="27" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
       <c r="G2027" s="26" t="s">
         <v>44</v>
@@ -50798,14 +50766,14 @@
       <c r="H2027" s="26"/>
       <c r="I2027" s="26"/>
       <c r="J2027" s="26" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="K2027" s="26" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
       <c r="L2027" s="26"/>
       <c r="M2027" s="26" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="N2027" s="32"/>
       <c r="O2027" s="32"/>
